--- a/Data Sources/Energy Bills/GasAverageBill.xlsx
+++ b/Data Sources/Energy Bills/GasAverageBill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\ScottishEnergyStatsProcessing\Data Sources\Energy Bills\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\Energy Bills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9A8A0C8-93C4-475C-B360-FF722A099FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136795FD-E560-4369-95F0-C71BDF4A3207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{C555B289-5F24-4911-822A-972CDD47AEDD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{C555B289-5F24-4911-822A-972CDD47AEDD}"/>
   </bookViews>
   <sheets>
     <sheet name="calc_new" sheetId="13" state="hidden" r:id="rId1"/>
@@ -38,14 +38,12 @@
     <definedName name="table_25_Q2" localSheetId="6">#REF!</definedName>
     <definedName name="table_25_Q2">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3425,11 +3423,11 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="10.54296875" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" customHeight="1">
@@ -3456,7 +3454,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="13" thickTop="1">
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="13.8" thickTop="1">
       <c r="B4" s="17"/>
       <c r="C4" s="190" t="s">
         <v>2</v>
@@ -3477,7 +3475,7 @@
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="23">
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="23.4">
       <c r="B5" s="18"/>
       <c r="C5" s="4" t="s">
         <v>0</v>
@@ -3522,7 +3520,7 @@
       <c r="L6"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" ht="14.15" customHeight="1">
+    <row r="7" spans="1:15" s="2" customFormat="1" ht="14.1" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="25">
         <v>2017</v>
@@ -3556,7 +3554,7 @@
       <c r="N7" s="23"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" ht="14.15" customHeight="1">
+    <row r="8" spans="1:15" s="2" customFormat="1" ht="14.1" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="25">
         <v>2018</v>
@@ -3590,7 +3588,7 @@
       <c r="N8" s="23"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" ht="14.15" customHeight="1">
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="14.1" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="25">
         <v>2019</v>
@@ -3624,7 +3622,7 @@
       <c r="N9" s="23"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="14.15" customHeight="1">
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="14.1" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="25">
         <v>2020</v>
@@ -3658,7 +3656,7 @@
       <c r="N10" s="23"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" ht="14.15" customHeight="1">
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="14.1" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="25">
         <v>2021</v>
@@ -3732,7 +3730,7 @@
       <c r="K12" s="91"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" ht="11.5">
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="11.4">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
         <v>54</v>
@@ -3772,7 +3770,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="13.5">
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="13.8">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -3792,7 +3790,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" ht="13">
+    <row r="15" spans="1:15" s="2" customFormat="1">
       <c r="A15" s="6"/>
       <c r="B15" s="25">
         <v>2017</v>
@@ -3836,7 +3834,7 @@
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
     </row>
-    <row r="16" spans="1:15" s="2" customFormat="1" ht="13">
+    <row r="16" spans="1:15" s="2" customFormat="1">
       <c r="A16" s="6"/>
       <c r="B16" s="25">
         <v>2018</v>
@@ -3880,7 +3878,7 @@
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
     </row>
-    <row r="17" spans="1:15" s="2" customFormat="1" ht="13">
+    <row r="17" spans="1:15" s="2" customFormat="1">
       <c r="A17" s="6"/>
       <c r="B17" s="25">
         <v>2019</v>
@@ -3924,7 +3922,7 @@
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
     </row>
-    <row r="18" spans="1:15" s="2" customFormat="1" ht="13">
+    <row r="18" spans="1:15" s="2" customFormat="1">
       <c r="A18" s="6"/>
       <c r="B18" s="25">
         <v>2020</v>
@@ -3968,7 +3966,7 @@
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
     </row>
-    <row r="19" spans="1:15" s="2" customFormat="1" ht="13">
+    <row r="19" spans="1:15" s="2" customFormat="1">
       <c r="A19" s="6"/>
       <c r="B19" s="25">
         <v>2021</v>
@@ -4010,7 +4008,7 @@
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
     </row>
-    <row r="20" spans="1:15" s="2" customFormat="1" ht="13">
+    <row r="20" spans="1:15" s="2" customFormat="1">
       <c r="A20" s="48" t="s">
         <v>4</v>
       </c>
@@ -4050,7 +4048,7 @@
       <c r="K20" s="93"/>
       <c r="L20" s="94"/>
     </row>
-    <row r="21" spans="1:15" ht="13" thickBot="1">
+    <row r="21" spans="1:15" ht="13.8" thickBot="1">
       <c r="A21" s="1"/>
       <c r="B21" s="8" t="s">
         <v>54</v>
@@ -4089,7 +4087,7 @@
       </c>
       <c r="K21" s="56"/>
     </row>
-    <row r="22" spans="1:15" ht="13" thickTop="1">
+    <row r="22" spans="1:15" ht="13.8" thickTop="1">
       <c r="K22" s="57" t="s">
         <v>61</v>
       </c>
@@ -4115,12 +4113,12 @@
   </sheetPr>
   <dimension ref="A1:P85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="9.7265625" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24" customHeight="1">
@@ -4236,7 +4234,7 @@
       <c r="N6" s="117"/>
       <c r="O6" s="117"/>
     </row>
-    <row r="7" spans="1:16" ht="41" customHeight="1">
+    <row r="7" spans="1:16" ht="40.950000000000003" customHeight="1">
       <c r="A7" s="155" t="s">
         <v>58</v>
       </c>
@@ -4312,7 +4310,7 @@
       <c r="N10" s="116"/>
       <c r="O10" s="116"/>
     </row>
-    <row r="11" spans="1:16" ht="42.5" customHeight="1">
+    <row r="11" spans="1:16" ht="42.45" customHeight="1">
       <c r="A11" s="155" t="s">
         <v>37</v>
       </c>
@@ -4446,8 +4444,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="16" customHeight="1"/>
-    <row r="25" spans="1:15" ht="16" customHeight="1">
+    <row r="24" spans="1:15" ht="16.05" customHeight="1"/>
+    <row r="25" spans="1:15" ht="16.05" customHeight="1">
       <c r="A25" s="117"/>
       <c r="B25" s="117"/>
       <c r="C25" s="117"/>
@@ -4464,7 +4462,7 @@
       <c r="N25" s="117"/>
       <c r="O25" s="117"/>
     </row>
-    <row r="26" spans="1:15" ht="16" customHeight="1">
+    <row r="26" spans="1:15" ht="16.05" customHeight="1">
       <c r="A26" s="117"/>
       <c r="B26" s="117"/>
       <c r="C26" s="117"/>
@@ -4481,65 +4479,65 @@
       <c r="N26" s="117"/>
       <c r="O26" s="117"/>
     </row>
-    <row r="27" spans="1:15" ht="16" customHeight="1"/>
-    <row r="28" spans="1:15" ht="16" customHeight="1"/>
-    <row r="29" spans="1:15" ht="16" customHeight="1"/>
-    <row r="30" spans="1:15" ht="16" customHeight="1"/>
-    <row r="31" spans="1:15" ht="16" customHeight="1"/>
-    <row r="32" spans="1:15" ht="16" customHeight="1"/>
-    <row r="33" ht="16" customHeight="1"/>
-    <row r="34" ht="16" customHeight="1"/>
-    <row r="35" ht="16" customHeight="1"/>
-    <row r="36" ht="16" customHeight="1"/>
-    <row r="37" ht="16" customHeight="1"/>
-    <row r="38" ht="16" customHeight="1"/>
-    <row r="39" ht="16" customHeight="1"/>
-    <row r="40" ht="16" customHeight="1"/>
-    <row r="41" ht="16" customHeight="1"/>
-    <row r="42" ht="16" customHeight="1"/>
-    <row r="43" ht="16" customHeight="1"/>
-    <row r="44" ht="16" customHeight="1"/>
-    <row r="45" ht="16" customHeight="1"/>
-    <row r="46" ht="16" customHeight="1"/>
-    <row r="47" ht="16" customHeight="1"/>
-    <row r="48" ht="16" customHeight="1"/>
-    <row r="49" ht="16" customHeight="1"/>
-    <row r="50" ht="16" customHeight="1"/>
-    <row r="51" ht="16" customHeight="1"/>
-    <row r="52" ht="16" customHeight="1"/>
-    <row r="53" ht="16" customHeight="1"/>
-    <row r="54" ht="16" customHeight="1"/>
-    <row r="55" ht="16" customHeight="1"/>
-    <row r="56" ht="16" customHeight="1"/>
-    <row r="57" ht="16" customHeight="1"/>
-    <row r="58" ht="16" customHeight="1"/>
-    <row r="59" ht="16" customHeight="1"/>
-    <row r="60" ht="16" customHeight="1"/>
-    <row r="61" ht="16" customHeight="1"/>
-    <row r="62" ht="16" customHeight="1"/>
-    <row r="63" ht="16" customHeight="1"/>
-    <row r="64" ht="16" customHeight="1"/>
-    <row r="65" ht="16" customHeight="1"/>
-    <row r="66" ht="16" customHeight="1"/>
-    <row r="67" ht="16" customHeight="1"/>
-    <row r="68" ht="16" customHeight="1"/>
-    <row r="69" ht="16" customHeight="1"/>
-    <row r="70" ht="16" customHeight="1"/>
-    <row r="71" ht="16" customHeight="1"/>
-    <row r="72" ht="16" customHeight="1"/>
-    <row r="73" ht="16" customHeight="1"/>
-    <row r="74" ht="16" customHeight="1"/>
-    <row r="75" ht="16" customHeight="1"/>
-    <row r="76" ht="16" customHeight="1"/>
-    <row r="77" ht="16" customHeight="1"/>
-    <row r="78" ht="16" customHeight="1"/>
-    <row r="79" ht="16" customHeight="1"/>
-    <row r="80" ht="16" customHeight="1"/>
-    <row r="81" ht="16" customHeight="1"/>
-    <row r="82" ht="16" customHeight="1"/>
-    <row r="83" ht="16" customHeight="1"/>
-    <row r="84" ht="16" customHeight="1"/>
-    <row r="85" ht="16" customHeight="1"/>
+    <row r="27" spans="1:15" ht="16.05" customHeight="1"/>
+    <row r="28" spans="1:15" ht="16.05" customHeight="1"/>
+    <row r="29" spans="1:15" ht="16.05" customHeight="1"/>
+    <row r="30" spans="1:15" ht="16.05" customHeight="1"/>
+    <row r="31" spans="1:15" ht="16.05" customHeight="1"/>
+    <row r="32" spans="1:15" ht="16.05" customHeight="1"/>
+    <row r="33" ht="16.05" customHeight="1"/>
+    <row r="34" ht="16.05" customHeight="1"/>
+    <row r="35" ht="16.05" customHeight="1"/>
+    <row r="36" ht="16.05" customHeight="1"/>
+    <row r="37" ht="16.05" customHeight="1"/>
+    <row r="38" ht="16.05" customHeight="1"/>
+    <row r="39" ht="16.05" customHeight="1"/>
+    <row r="40" ht="16.05" customHeight="1"/>
+    <row r="41" ht="16.05" customHeight="1"/>
+    <row r="42" ht="16.05" customHeight="1"/>
+    <row r="43" ht="16.05" customHeight="1"/>
+    <row r="44" ht="16.05" customHeight="1"/>
+    <row r="45" ht="16.05" customHeight="1"/>
+    <row r="46" ht="16.05" customHeight="1"/>
+    <row r="47" ht="16.05" customHeight="1"/>
+    <row r="48" ht="16.05" customHeight="1"/>
+    <row r="49" ht="16.05" customHeight="1"/>
+    <row r="50" ht="16.05" customHeight="1"/>
+    <row r="51" ht="16.05" customHeight="1"/>
+    <row r="52" ht="16.05" customHeight="1"/>
+    <row r="53" ht="16.05" customHeight="1"/>
+    <row r="54" ht="16.05" customHeight="1"/>
+    <row r="55" ht="16.05" customHeight="1"/>
+    <row r="56" ht="16.05" customHeight="1"/>
+    <row r="57" ht="16.05" customHeight="1"/>
+    <row r="58" ht="16.05" customHeight="1"/>
+    <row r="59" ht="16.05" customHeight="1"/>
+    <row r="60" ht="16.05" customHeight="1"/>
+    <row r="61" ht="16.05" customHeight="1"/>
+    <row r="62" ht="16.05" customHeight="1"/>
+    <row r="63" ht="16.05" customHeight="1"/>
+    <row r="64" ht="16.05" customHeight="1"/>
+    <row r="65" ht="16.05" customHeight="1"/>
+    <row r="66" ht="16.05" customHeight="1"/>
+    <row r="67" ht="16.05" customHeight="1"/>
+    <row r="68" ht="16.05" customHeight="1"/>
+    <row r="69" ht="16.05" customHeight="1"/>
+    <row r="70" ht="16.05" customHeight="1"/>
+    <row r="71" ht="16.05" customHeight="1"/>
+    <row r="72" ht="16.05" customHeight="1"/>
+    <row r="73" ht="16.05" customHeight="1"/>
+    <row r="74" ht="16.05" customHeight="1"/>
+    <row r="75" ht="16.05" customHeight="1"/>
+    <row r="76" ht="16.05" customHeight="1"/>
+    <row r="77" ht="16.05" customHeight="1"/>
+    <row r="78" ht="16.05" customHeight="1"/>
+    <row r="79" ht="16.05" customHeight="1"/>
+    <row r="80" ht="16.05" customHeight="1"/>
+    <row r="81" ht="16.05" customHeight="1"/>
+    <row r="82" ht="16.05" customHeight="1"/>
+    <row r="83" ht="16.05" customHeight="1"/>
+    <row r="84" ht="16.05" customHeight="1"/>
+    <row r="85" ht="16.05" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A13" r:id="rId1" xr:uid="{3FC7E51E-C696-4949-9D9F-A6FF707E2A07}"/>
@@ -4565,12 +4563,12 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="133"/>
+    <col min="1" max="16384" width="8.77734375" style="133"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5">
+    <row r="1" spans="1:11" ht="15.6">
       <c r="A1" s="159" t="s">
         <v>32</v>
       </c>
@@ -4585,7 +4583,7 @@
       <c r="J1" s="153"/>
       <c r="K1" s="153"/>
     </row>
-    <row r="2" spans="1:11" ht="15.5">
+    <row r="2" spans="1:11" ht="15">
       <c r="A2" s="153" t="s">
         <v>33</v>
       </c>
@@ -4599,7 +4597,7 @@
       <c r="J2" s="153"/>
       <c r="K2" s="153"/>
     </row>
-    <row r="3" spans="1:11" ht="15.5">
+    <row r="3" spans="1:11" ht="15">
       <c r="A3" s="162" t="s">
         <v>39</v>
       </c>
@@ -4614,7 +4612,7 @@
       <c r="J3" s="153"/>
       <c r="K3" s="153"/>
     </row>
-    <row r="4" spans="1:11" ht="15.5">
+    <row r="4" spans="1:11" ht="15">
       <c r="A4" s="162" t="s">
         <v>105</v>
       </c>
@@ -4629,7 +4627,7 @@
       <c r="J4" s="153"/>
       <c r="K4" s="153"/>
     </row>
-    <row r="5" spans="1:11" ht="15.5">
+    <row r="5" spans="1:11" ht="15">
       <c r="A5" s="153" t="s">
         <v>34</v>
       </c>
@@ -4643,7 +4641,7 @@
       <c r="J5" s="153"/>
       <c r="K5" s="153"/>
     </row>
-    <row r="6" spans="1:11" ht="15.5">
+    <row r="6" spans="1:11" ht="15">
       <c r="A6" s="162" t="s">
         <v>35</v>
       </c>
@@ -4680,18 +4678,18 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" style="10" customWidth="1"/>
-    <col min="4" max="5" width="10.54296875" customWidth="1"/>
-    <col min="6" max="6" width="1.54296875" customWidth="1"/>
-    <col min="7" max="8" width="10.54296875" customWidth="1"/>
-    <col min="9" max="9" width="1.54296875" customWidth="1"/>
-    <col min="10" max="11" width="10.54296875" customWidth="1"/>
-    <col min="12" max="12" width="1.54296875" customWidth="1"/>
-    <col min="13" max="14" width="10.54296875" customWidth="1"/>
+    <col min="4" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="1.5546875" customWidth="1"/>
+    <col min="7" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="1.5546875" customWidth="1"/>
+    <col min="10" max="11" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="1.5546875" customWidth="1"/>
+    <col min="13" max="14" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="19.5" customHeight="1">
@@ -4724,7 +4722,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" ht="12" thickTop="1">
+    <row r="4" spans="1:27" s="2" customFormat="1" ht="12.6" thickTop="1">
       <c r="B4" s="17"/>
       <c r="C4" s="11"/>
       <c r="D4" s="190" t="s">
@@ -4747,7 +4745,7 @@
       </c>
       <c r="N4" s="190"/>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" ht="23">
+    <row r="5" spans="1:27" s="2" customFormat="1" ht="22.8">
       <c r="B5" s="18"/>
       <c r="C5" s="7"/>
       <c r="D5" s="4" t="s">
@@ -4778,7 +4776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" ht="11.5">
+    <row r="6" spans="1:27" s="2" customFormat="1" ht="12">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -4796,7 +4794,7 @@
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" ht="13.5">
+    <row r="7" spans="1:27" s="2" customFormat="1" ht="13.8">
       <c r="A7" s="6"/>
       <c r="B7" s="19" t="s">
         <v>7</v>
@@ -5156,7 +5154,7 @@
       <c r="Z16"/>
       <c r="AA16"/>
     </row>
-    <row r="17" spans="1:27" s="2" customFormat="1" ht="13.5">
+    <row r="17" spans="1:27" s="2" customFormat="1" ht="13.8">
       <c r="A17" s="6"/>
       <c r="B17" s="42" t="s">
         <v>18</v>
@@ -5491,7 +5489,7 @@
       <c r="R26" s="23"/>
       <c r="S26"/>
     </row>
-    <row r="27" spans="1:27" s="2" customFormat="1" ht="14.15" customHeight="1">
+    <row r="27" spans="1:27" s="2" customFormat="1" ht="14.1" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="25">
         <v>2017</v>
@@ -5528,7 +5526,7 @@
       <c r="R27" s="23"/>
       <c r="S27"/>
     </row>
-    <row r="28" spans="1:27" s="2" customFormat="1" ht="14.15" customHeight="1">
+    <row r="28" spans="1:27" s="2" customFormat="1" ht="14.1" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="25">
         <v>2018</v>
@@ -5565,7 +5563,7 @@
       <c r="R28" s="23"/>
       <c r="S28"/>
     </row>
-    <row r="29" spans="1:27" s="2" customFormat="1" ht="14.15" customHeight="1">
+    <row r="29" spans="1:27" s="2" customFormat="1" ht="14.1" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="25">
         <v>2019</v>
@@ -5684,7 +5682,7 @@
       <c r="O31" s="32"/>
       <c r="P31" s="32"/>
     </row>
-    <row r="32" spans="1:27" s="2" customFormat="1" ht="11.5">
+    <row r="32" spans="1:27" s="2" customFormat="1" ht="11.4">
       <c r="A32" s="8"/>
       <c r="B32" s="8" t="s">
         <v>47</v>
@@ -5728,7 +5726,7 @@
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
     </row>
-    <row r="33" spans="1:16" s="2" customFormat="1" ht="13.5">
+    <row r="33" spans="1:16" s="2" customFormat="1" ht="13.8">
       <c r="A33" s="6" t="s">
         <v>8</v>
       </c>
@@ -5752,7 +5750,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="2" customFormat="1" ht="13.5">
+    <row r="34" spans="1:16" s="2" customFormat="1" ht="13.8">
       <c r="A34" s="6"/>
       <c r="B34" s="19" t="s">
         <v>7</v>
@@ -5791,7 +5789,7 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="2" customFormat="1" ht="13">
+    <row r="35" spans="1:16" s="2" customFormat="1">
       <c r="A35" s="6"/>
       <c r="B35" s="21">
         <v>1999</v>
@@ -5831,7 +5829,7 @@
       </c>
       <c r="P35" s="22"/>
     </row>
-    <row r="36" spans="1:16" s="2" customFormat="1" ht="13">
+    <row r="36" spans="1:16" s="2" customFormat="1">
       <c r="A36" s="6"/>
       <c r="B36" s="21">
         <v>2000</v>
@@ -5871,7 +5869,7 @@
       </c>
       <c r="P36" s="22"/>
     </row>
-    <row r="37" spans="1:16" s="2" customFormat="1" ht="11.5">
+    <row r="37" spans="1:16" s="2" customFormat="1" ht="12">
       <c r="A37" s="6"/>
       <c r="B37" s="21">
         <v>2001</v>
@@ -5910,7 +5908,7 @@
         <v>81.39</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="2" customFormat="1" ht="11.5">
+    <row r="38" spans="1:16" s="2" customFormat="1" ht="12">
       <c r="A38" s="6"/>
       <c r="B38" s="21">
         <v>2002</v>
@@ -5949,7 +5947,7 @@
         <v>83.11</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="2" customFormat="1" ht="13">
+    <row r="39" spans="1:16" s="2" customFormat="1">
       <c r="A39" s="6"/>
       <c r="B39" s="25">
         <v>2003</v>
@@ -5989,7 +5987,7 @@
       </c>
       <c r="P39" s="22"/>
     </row>
-    <row r="40" spans="1:16" s="2" customFormat="1" ht="13">
+    <row r="40" spans="1:16" s="2" customFormat="1">
       <c r="A40" s="6"/>
       <c r="B40" s="21">
         <v>2004</v>
@@ -6029,7 +6027,7 @@
       </c>
       <c r="P40" s="22"/>
     </row>
-    <row r="41" spans="1:16" s="2" customFormat="1" ht="13">
+    <row r="41" spans="1:16" s="2" customFormat="1">
       <c r="A41" s="6"/>
       <c r="B41" s="21">
         <v>2005</v>
@@ -6069,7 +6067,7 @@
       </c>
       <c r="P41" s="22"/>
     </row>
-    <row r="42" spans="1:16" s="2" customFormat="1" ht="13">
+    <row r="42" spans="1:16" s="2" customFormat="1">
       <c r="A42" s="35"/>
       <c r="B42" s="40">
         <v>2006</v>
@@ -6109,7 +6107,7 @@
       </c>
       <c r="P42" s="22"/>
     </row>
-    <row r="43" spans="1:16" s="2" customFormat="1" ht="14">
+    <row r="43" spans="1:16" s="2" customFormat="1" ht="13.8">
       <c r="A43" s="6"/>
       <c r="B43" s="42" t="s">
         <v>18</v>
@@ -6148,7 +6146,7 @@
       </c>
       <c r="P43" s="22"/>
     </row>
-    <row r="44" spans="1:16" s="2" customFormat="1" ht="13">
+    <row r="44" spans="1:16" s="2" customFormat="1">
       <c r="A44" s="6"/>
       <c r="B44" s="21">
         <v>2008</v>
@@ -6187,7 +6185,7 @@
       </c>
       <c r="P44" s="22"/>
     </row>
-    <row r="45" spans="1:16" s="2" customFormat="1" ht="13">
+    <row r="45" spans="1:16" s="2" customFormat="1">
       <c r="A45" s="6"/>
       <c r="B45" s="21">
         <v>2009</v>
@@ -6226,7 +6224,7 @@
       </c>
       <c r="P45" s="22"/>
     </row>
-    <row r="46" spans="1:16" s="2" customFormat="1" ht="13">
+    <row r="46" spans="1:16" s="2" customFormat="1">
       <c r="A46" s="6"/>
       <c r="B46" s="21">
         <v>2010</v>
@@ -6265,7 +6263,7 @@
       </c>
       <c r="P46" s="22"/>
     </row>
-    <row r="47" spans="1:16" s="2" customFormat="1" ht="13">
+    <row r="47" spans="1:16" s="2" customFormat="1">
       <c r="A47" s="6"/>
       <c r="B47" s="21">
         <v>2011</v>
@@ -6304,7 +6302,7 @@
       </c>
       <c r="P47" s="22"/>
     </row>
-    <row r="48" spans="1:16" s="2" customFormat="1" ht="13">
+    <row r="48" spans="1:16" s="2" customFormat="1">
       <c r="A48" s="6"/>
       <c r="B48" s="21">
         <v>2012</v>
@@ -6343,7 +6341,7 @@
       </c>
       <c r="P48" s="22"/>
     </row>
-    <row r="49" spans="1:19" s="2" customFormat="1" ht="13">
+    <row r="49" spans="1:19" s="2" customFormat="1">
       <c r="A49" s="6"/>
       <c r="B49" s="21">
         <v>2013</v>
@@ -6382,7 +6380,7 @@
       </c>
       <c r="P49" s="22"/>
     </row>
-    <row r="50" spans="1:19" s="2" customFormat="1" ht="13">
+    <row r="50" spans="1:19" s="2" customFormat="1">
       <c r="A50" s="6"/>
       <c r="B50" s="21">
         <v>2014</v>
@@ -6421,7 +6419,7 @@
       </c>
       <c r="P50" s="22"/>
     </row>
-    <row r="51" spans="1:19" s="2" customFormat="1" ht="13">
+    <row r="51" spans="1:19" s="2" customFormat="1">
       <c r="A51" s="6"/>
       <c r="B51" s="21">
         <v>2015</v>
@@ -6460,7 +6458,7 @@
       </c>
       <c r="P51" s="22"/>
     </row>
-    <row r="52" spans="1:19" s="2" customFormat="1" ht="13">
+    <row r="52" spans="1:19" s="2" customFormat="1">
       <c r="A52" s="6"/>
       <c r="B52" s="21">
         <v>2016</v>
@@ -6499,7 +6497,7 @@
       </c>
       <c r="P52" s="22"/>
     </row>
-    <row r="53" spans="1:19" s="2" customFormat="1" ht="13">
+    <row r="53" spans="1:19" s="2" customFormat="1">
       <c r="A53" s="6"/>
       <c r="B53" s="25">
         <v>2017</v>
@@ -6546,7 +6544,7 @@
       <c r="R53" s="23"/>
       <c r="S53" s="23"/>
     </row>
-    <row r="54" spans="1:19" s="2" customFormat="1" ht="13">
+    <row r="54" spans="1:19" s="2" customFormat="1">
       <c r="A54" s="6"/>
       <c r="B54" s="25">
         <v>2018</v>
@@ -6593,7 +6591,7 @@
       <c r="R54" s="23"/>
       <c r="S54" s="23"/>
     </row>
-    <row r="55" spans="1:19" s="2" customFormat="1" ht="13">
+    <row r="55" spans="1:19" s="2" customFormat="1">
       <c r="A55" s="6"/>
       <c r="B55" s="25">
         <v>2019</v>
@@ -6640,7 +6638,7 @@
       <c r="R55" s="23"/>
       <c r="S55" s="23"/>
     </row>
-    <row r="56" spans="1:19" s="2" customFormat="1" ht="13">
+    <row r="56" spans="1:19" s="2" customFormat="1">
       <c r="A56" s="48" t="s">
         <v>4</v>
       </c>
@@ -6684,7 +6682,7 @@
       <c r="O56" s="93"/>
       <c r="P56" s="94"/>
     </row>
-    <row r="57" spans="1:19" s="2" customFormat="1" ht="13">
+    <row r="57" spans="1:19" s="2" customFormat="1">
       <c r="A57" s="9"/>
       <c r="B57" s="2" t="s">
         <v>48</v>
@@ -6722,7 +6720,7 @@
       <c r="O57" s="55"/>
       <c r="P57"/>
     </row>
-    <row r="58" spans="1:19" ht="13" thickBot="1">
+    <row r="58" spans="1:19" ht="13.8" thickBot="1">
       <c r="A58" s="1"/>
       <c r="B58" s="8" t="s">
         <v>47</v>
@@ -6765,7 +6763,7 @@
       </c>
       <c r="O58" s="56"/>
     </row>
-    <row r="59" spans="1:19" ht="13" thickTop="1">
+    <row r="59" spans="1:19" ht="13.8" thickTop="1">
       <c r="O59" s="57" t="s">
         <v>51</v>
       </c>
@@ -6793,12 +6791,14 @@
   </sheetPr>
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" style="16" customWidth="1"/>
-    <col min="2" max="9" width="14.6328125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="16" customWidth="1"/>
+    <col min="2" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="183" customFormat="1" ht="18" customHeight="1">
@@ -6889,7 +6889,7 @@
       <c r="F8" s="182"/>
       <c r="G8" s="182"/>
     </row>
-    <row r="9" spans="1:23" s="54" customFormat="1" ht="64" customHeight="1">
+    <row r="9" spans="1:23" s="54" customFormat="1" ht="64.05" customHeight="1">
       <c r="A9" s="150" t="s">
         <v>63</v>
       </c>
@@ -6920,7 +6920,7 @@
       <c r="J9" s="151"/>
       <c r="K9" s="151"/>
     </row>
-    <row r="10" spans="1:23" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="10" spans="1:23" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A10" s="180">
         <v>2017</v>
       </c>
@@ -6971,7 +6971,7 @@
       <c r="V10" s="29"/>
       <c r="W10" s="29"/>
     </row>
-    <row r="11" spans="1:23" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="11" spans="1:23" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A11" s="180">
         <v>2018</v>
       </c>
@@ -7022,7 +7022,7 @@
       <c r="V11" s="29"/>
       <c r="W11" s="29"/>
     </row>
-    <row r="12" spans="1:23" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="12" spans="1:23" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A12" s="180">
         <v>2019</v>
       </c>
@@ -7129,36 +7129,28 @@
         <v>2021</v>
       </c>
       <c r="B14" s="128">
-        <f>calc_new!C11</f>
-        <v>632.69651244460977</v>
+        <v>603</v>
       </c>
       <c r="C14" s="128">
-        <f>calc_new!D11</f>
-        <v>630.6393966410576</v>
+        <v>597</v>
       </c>
       <c r="D14" s="128">
-        <f>calc_new!E11</f>
-        <v>564.30739205771317</v>
+        <v>547</v>
       </c>
       <c r="E14" s="128">
-        <f>calc_new!F11</f>
-        <v>572.20528354787473</v>
+        <v>547</v>
       </c>
       <c r="F14" s="128">
-        <f>calc_new!G11</f>
-        <v>559.30133672462682</v>
+        <v>553</v>
       </c>
       <c r="G14" s="128">
-        <f>calc_new!H11</f>
-        <v>559.64865497712128</v>
+        <v>550</v>
       </c>
       <c r="H14" s="128">
-        <f>calc_new!I11</f>
-        <v>574.77303070315122</v>
+        <v>557</v>
       </c>
       <c r="I14" s="128">
-        <f>calc_new!J11</f>
-        <v>579.48658298655539</v>
+        <v>556</v>
       </c>
       <c r="J14" s="127"/>
       <c r="K14" s="127"/>
@@ -7202,11 +7194,11 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="19.21875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" style="142" customWidth="1"/>
-    <col min="2" max="9" width="14.6328125" style="133" customWidth="1"/>
-    <col min="10" max="16384" width="19.1796875" style="133"/>
+    <col min="1" max="1" width="14.6640625" style="142" customWidth="1"/>
+    <col min="2" max="9" width="14.6640625" style="133" customWidth="1"/>
+    <col min="10" max="16384" width="19.21875" style="133"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" customHeight="1">
@@ -7308,7 +7300,7 @@
       <c r="F9" s="132"/>
       <c r="G9" s="132"/>
     </row>
-    <row r="10" spans="1:16" s="149" customFormat="1" ht="64" customHeight="1">
+    <row r="10" spans="1:16" s="149" customFormat="1" ht="64.05" customHeight="1">
       <c r="A10" s="147" t="s">
         <v>63</v>
       </c>
@@ -7339,7 +7331,7 @@
       <c r="J10" s="148"/>
       <c r="K10" s="148"/>
     </row>
-    <row r="11" spans="1:16" s="137" customFormat="1" ht="11.5">
+    <row r="11" spans="1:16" s="137" customFormat="1" ht="11.4">
       <c r="A11" s="138">
         <v>2017</v>
       </c>
@@ -7382,7 +7374,7 @@
       <c r="N11" s="140"/>
       <c r="O11" s="140"/>
     </row>
-    <row r="12" spans="1:16" s="137" customFormat="1" ht="11.5">
+    <row r="12" spans="1:16" s="137" customFormat="1" ht="11.4">
       <c r="A12" s="138">
         <v>2018</v>
       </c>
@@ -7425,7 +7417,7 @@
       <c r="N12" s="140"/>
       <c r="O12" s="140"/>
     </row>
-    <row r="13" spans="1:16" s="137" customFormat="1" ht="11.5">
+    <row r="13" spans="1:16" s="137" customFormat="1" ht="11.4">
       <c r="A13" s="138">
         <v>2019</v>
       </c>
@@ -7468,7 +7460,7 @@
       <c r="N13" s="140"/>
       <c r="O13" s="140"/>
     </row>
-    <row r="14" spans="1:16" s="137" customFormat="1" ht="11.5">
+    <row r="14" spans="1:16" s="137" customFormat="1" ht="11.4">
       <c r="A14" s="138">
         <v>2020</v>
       </c>
@@ -7560,10 +7552,10 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="152.08984375" style="104" customWidth="1"/>
-    <col min="2" max="16384" width="8.81640625" style="104"/>
+    <col min="1" max="1" width="152.109375" style="104" customWidth="1"/>
+    <col min="2" max="16384" width="8.77734375" style="104"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
@@ -7587,7 +7579,7 @@
       <c r="P1" s="103"/>
       <c r="Q1" s="103"/>
     </row>
-    <row r="2" spans="1:17" s="171" customFormat="1" ht="27.5" customHeight="1">
+    <row r="2" spans="1:17" s="171" customFormat="1" ht="27.45" customHeight="1">
       <c r="A2" s="169" t="s">
         <v>13</v>
       </c>
@@ -7608,7 +7600,7 @@
       <c r="P2" s="170"/>
       <c r="Q2" s="170"/>
     </row>
-    <row r="3" spans="1:17" ht="43.4" customHeight="1">
+    <row r="3" spans="1:17" ht="43.35" customHeight="1">
       <c r="A3" s="106" t="s">
         <v>14</v>
       </c>
@@ -7650,7 +7642,7 @@
       <c r="P4" s="107"/>
       <c r="Q4" s="107"/>
     </row>
-    <row r="5" spans="1:17" ht="29" customHeight="1">
+    <row r="5" spans="1:17" ht="28.95" customHeight="1">
       <c r="A5" s="105" t="s">
         <v>15</v>
       </c>
@@ -7671,7 +7663,7 @@
       <c r="P5" s="103"/>
       <c r="Q5" s="103"/>
     </row>
-    <row r="6" spans="1:17" ht="46.4" customHeight="1">
+    <row r="6" spans="1:17" ht="46.35" customHeight="1">
       <c r="A6" s="106" t="s">
         <v>20</v>
       </c>
@@ -7734,12 +7726,12 @@
       <c r="P8" s="106"/>
       <c r="Q8" s="106"/>
     </row>
-    <row r="9" spans="1:17" ht="27.5" customHeight="1">
+    <row r="9" spans="1:17" ht="27.45" customHeight="1">
       <c r="A9" s="169" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="29.15" customHeight="1">
+    <row r="10" spans="1:17" ht="29.1" customHeight="1">
       <c r="A10" s="166" t="s">
         <v>94</v>
       </c>
@@ -7754,7 +7746,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="44.15" customHeight="1">
+    <row r="13" spans="1:17" ht="44.1" customHeight="1">
       <c r="A13" s="166" t="s">
         <v>97</v>
       </c>
@@ -7779,7 +7771,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="31.4" customHeight="1">
+    <row r="18" spans="1:5" ht="31.35" customHeight="1">
       <c r="A18" s="110" t="s">
         <v>42</v>
       </c>
@@ -7789,12 +7781,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="173" customFormat="1" ht="15.5">
+    <row r="20" spans="1:5" s="173" customFormat="1" ht="15.6">
       <c r="A20" s="172" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="42">
+    <row r="21" spans="1:5" ht="41.4">
       <c r="A21" s="112" t="s">
         <v>103</v>
       </c>
@@ -7813,7 +7805,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="176" customFormat="1" ht="15.5">
+    <row r="24" spans="1:5" s="176" customFormat="1" ht="15.6">
       <c r="A24" s="175" t="s">
         <v>40</v>
       </c>
@@ -7841,18 +7833,18 @@
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" style="16" customWidth="1"/>
-    <col min="3" max="4" width="10.54296875" customWidth="1"/>
-    <col min="5" max="5" width="1.54296875" customWidth="1"/>
-    <col min="6" max="7" width="10.54296875" customWidth="1"/>
-    <col min="8" max="8" width="1.54296875" customWidth="1"/>
-    <col min="9" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="1.54296875" customWidth="1"/>
-    <col min="12" max="13" width="10.54296875" customWidth="1"/>
-    <col min="14" max="19" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="16" customWidth="1"/>
+    <col min="3" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="1.5546875" customWidth="1"/>
+    <col min="6" max="7" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="1.5546875" customWidth="1"/>
+    <col min="9" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="1.5546875" customWidth="1"/>
+    <col min="12" max="13" width="10.5546875" customWidth="1"/>
+    <col min="14" max="19" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1">
@@ -7891,7 +7883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="12" thickTop="1">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="12.6" thickTop="1">
       <c r="B4" s="17"/>
       <c r="C4" s="190" t="s">
         <v>2</v>
@@ -7913,7 +7905,7 @@
       </c>
       <c r="M4" s="190"/>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="23">
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="22.8">
       <c r="A5" s="8"/>
       <c r="B5" s="20"/>
       <c r="C5" s="4" t="s">
@@ -7944,7 +7936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="11.5">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="12">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -7961,7 +7953,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="13.5">
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="13.8">
       <c r="A7" s="6"/>
       <c r="B7" s="44" t="s">
         <v>24</v>
@@ -7990,7 +7982,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="44">
         <v>1999</v>
@@ -8019,7 +8011,7 @@
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="44">
         <v>2000</v>
@@ -8048,7 +8040,7 @@
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="44">
         <v>2001</v>
@@ -8077,7 +8069,7 @@
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
     </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="44">
         <v>2002</v>
@@ -8106,7 +8098,7 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="44">
         <v>2003</v>
@@ -8135,7 +8127,7 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="44">
         <v>2004</v>
@@ -8164,7 +8156,7 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="44">
         <v>2005</v>
@@ -8193,7 +8185,7 @@
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A15" s="35"/>
       <c r="B15" s="45">
         <v>2006</v>
@@ -8222,7 +8214,7 @@
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="13.5">
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="13.8">
       <c r="A16" s="6"/>
       <c r="B16" s="44" t="s">
         <v>26</v>
@@ -8251,7 +8243,7 @@
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:27" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="17" spans="1:27" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="44">
         <v>2008</v>
@@ -8288,7 +8280,7 @@
       <c r="T17" s="30"/>
       <c r="U17" s="30"/>
     </row>
-    <row r="18" spans="1:27" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="18" spans="1:27" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="44">
         <v>2009</v>
@@ -8325,7 +8317,7 @@
       <c r="T18" s="30"/>
       <c r="U18" s="30"/>
     </row>
-    <row r="19" spans="1:27" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="19" spans="1:27" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="44">
         <v>2010</v>
@@ -8362,7 +8354,7 @@
       <c r="T19" s="30"/>
       <c r="U19" s="30"/>
     </row>
-    <row r="20" spans="1:27" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="20" spans="1:27" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="44">
         <v>2011</v>
@@ -8399,7 +8391,7 @@
       <c r="T20" s="30"/>
       <c r="U20" s="30"/>
     </row>
-    <row r="21" spans="1:27" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="21" spans="1:27" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="44">
         <v>2012</v>
@@ -8437,7 +8429,7 @@
       <c r="U21" s="30"/>
       <c r="V21" s="30"/>
     </row>
-    <row r="22" spans="1:27" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="22" spans="1:27" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="44">
         <v>2013</v>
@@ -8480,7 +8472,7 @@
       <c r="Z22" s="29"/>
       <c r="AA22" s="29"/>
     </row>
-    <row r="23" spans="1:27" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="23" spans="1:27" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="44">
         <v>2014</v>
@@ -8523,7 +8515,7 @@
       <c r="Z23" s="29"/>
       <c r="AA23" s="29"/>
     </row>
-    <row r="24" spans="1:27" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="24" spans="1:27" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="44">
         <v>2015</v>
@@ -8566,7 +8558,7 @@
       <c r="Z24" s="29"/>
       <c r="AA24" s="29"/>
     </row>
-    <row r="25" spans="1:27" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="25" spans="1:27" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="44">
         <v>2016</v>
@@ -8609,7 +8601,7 @@
       <c r="Z25" s="29"/>
       <c r="AA25" s="29"/>
     </row>
-    <row r="26" spans="1:27" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="26" spans="1:27" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="44">
         <v>2017</v>
@@ -8656,7 +8648,7 @@
       <c r="Z26" s="29"/>
       <c r="AA26" s="29"/>
     </row>
-    <row r="27" spans="1:27" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="27" spans="1:27" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="44">
         <v>2018</v>
@@ -8703,7 +8695,7 @@
       <c r="Z27" s="29"/>
       <c r="AA27" s="29"/>
     </row>
-    <row r="28" spans="1:27" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="28" spans="1:27" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="44">
         <v>2019</v>
@@ -8750,7 +8742,7 @@
       <c r="Z28" s="29"/>
       <c r="AA28" s="29"/>
     </row>
-    <row r="29" spans="1:27" s="2" customFormat="1" ht="11.5">
+    <row r="29" spans="1:27" s="2" customFormat="1" ht="12">
       <c r="A29" s="51" t="s">
         <v>4</v>
       </c>
@@ -8807,7 +8799,7 @@
       <c r="R30" s="29"/>
       <c r="S30" s="29"/>
     </row>
-    <row r="31" spans="1:27" s="2" customFormat="1" ht="13.5">
+    <row r="31" spans="1:27" s="2" customFormat="1" ht="13.8">
       <c r="A31" s="6" t="s">
         <v>25</v>
       </c>
@@ -8824,7 +8816,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:27" s="2" customFormat="1" ht="13.5">
+    <row r="32" spans="1:27" s="2" customFormat="1" ht="13.8">
       <c r="A32" s="6"/>
       <c r="B32" s="44" t="s">
         <v>24</v>
@@ -8853,7 +8845,7 @@
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
     </row>
-    <row r="33" spans="1:13" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="33" spans="1:13" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A33" s="6"/>
       <c r="B33" s="44">
         <v>1999</v>
@@ -8882,7 +8874,7 @@
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
     </row>
-    <row r="34" spans="1:13" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="34" spans="1:13" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A34" s="6"/>
       <c r="B34" s="44">
         <v>2000</v>
@@ -8911,7 +8903,7 @@
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
     </row>
-    <row r="35" spans="1:13" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="35" spans="1:13" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="44">
         <v>2001</v>
@@ -8940,7 +8932,7 @@
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
     </row>
-    <row r="36" spans="1:13" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="36" spans="1:13" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="44">
         <v>2002</v>
@@ -8969,7 +8961,7 @@
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
     </row>
-    <row r="37" spans="1:13" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="37" spans="1:13" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="44">
         <v>2003</v>
@@ -8998,7 +8990,7 @@
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="1:13" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="38" spans="1:13" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="44">
         <v>2004</v>
@@ -9027,7 +9019,7 @@
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
     </row>
-    <row r="39" spans="1:13" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="39" spans="1:13" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A39" s="6"/>
       <c r="B39" s="44">
         <v>2005</v>
@@ -9056,7 +9048,7 @@
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
     </row>
-    <row r="40" spans="1:13" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="40" spans="1:13" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A40" s="35"/>
       <c r="B40" s="45">
         <v>2006</v>
@@ -9085,7 +9077,7 @@
       <c r="L40" s="38"/>
       <c r="M40" s="38"/>
     </row>
-    <row r="41" spans="1:13" s="2" customFormat="1" ht="13.5">
+    <row r="41" spans="1:13" s="2" customFormat="1" ht="13.8">
       <c r="A41" s="6"/>
       <c r="B41" s="44" t="s">
         <v>26</v>
@@ -9114,7 +9106,7 @@
       <c r="L41" s="14"/>
       <c r="M41" s="14"/>
     </row>
-    <row r="42" spans="1:13" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="42" spans="1:13" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A42" s="6"/>
       <c r="B42" s="44">
         <v>2008</v>
@@ -9143,7 +9135,7 @@
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
     </row>
-    <row r="43" spans="1:13" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="43" spans="1:13" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A43" s="6"/>
       <c r="B43" s="44">
         <v>2009</v>
@@ -9172,7 +9164,7 @@
       <c r="L43" s="14"/>
       <c r="M43" s="14"/>
     </row>
-    <row r="44" spans="1:13" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="44" spans="1:13" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A44" s="6"/>
       <c r="B44" s="44">
         <v>2010</v>
@@ -9201,7 +9193,7 @@
       <c r="L44" s="14"/>
       <c r="M44" s="14"/>
     </row>
-    <row r="45" spans="1:13" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="45" spans="1:13" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A45" s="6"/>
       <c r="B45" s="44">
         <v>2011</v>
@@ -9230,7 +9222,7 @@
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
     </row>
-    <row r="46" spans="1:13" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="46" spans="1:13" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A46" s="6"/>
       <c r="B46" s="44">
         <v>2012</v>
@@ -9259,7 +9251,7 @@
       <c r="L46" s="14"/>
       <c r="M46" s="14"/>
     </row>
-    <row r="47" spans="1:13" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="47" spans="1:13" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A47" s="6"/>
       <c r="B47" s="44">
         <v>2013</v>
@@ -9288,7 +9280,7 @@
       <c r="L47" s="14"/>
       <c r="M47" s="14"/>
     </row>
-    <row r="48" spans="1:13" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="48" spans="1:13" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A48" s="6"/>
       <c r="B48" s="44">
         <v>2014</v>
@@ -9317,7 +9309,7 @@
       <c r="L48" s="14"/>
       <c r="M48" s="14"/>
     </row>
-    <row r="49" spans="1:20" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="49" spans="1:20" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A49" s="6"/>
       <c r="B49" s="44">
         <v>2015</v>
@@ -9352,7 +9344,7 @@
       <c r="R49" s="14"/>
       <c r="S49" s="14"/>
     </row>
-    <row r="50" spans="1:20" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="50" spans="1:20" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A50" s="6"/>
       <c r="B50" s="44">
         <v>2016</v>
@@ -9387,7 +9379,7 @@
       <c r="R50" s="14"/>
       <c r="S50" s="14"/>
     </row>
-    <row r="51" spans="1:20" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="51" spans="1:20" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A51" s="6"/>
       <c r="B51" s="44">
         <v>2017</v>
@@ -9426,7 +9418,7 @@
       <c r="R51" s="14"/>
       <c r="S51" s="14"/>
     </row>
-    <row r="52" spans="1:20" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="52" spans="1:20" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A52" s="6"/>
       <c r="B52" s="44">
         <v>2018</v>
@@ -9465,7 +9457,7 @@
       <c r="R52" s="14"/>
       <c r="S52" s="14"/>
     </row>
-    <row r="53" spans="1:20" s="2" customFormat="1" ht="11.15" customHeight="1">
+    <row r="53" spans="1:20" s="2" customFormat="1" ht="11.1" customHeight="1">
       <c r="A53" s="6"/>
       <c r="B53" s="44">
         <v>2019</v>
@@ -9504,7 +9496,7 @@
       <c r="R53" s="14"/>
       <c r="S53" s="14"/>
     </row>
-    <row r="54" spans="1:20" s="2" customFormat="1" ht="13">
+    <row r="54" spans="1:20" s="2" customFormat="1">
       <c r="A54" s="48" t="s">
         <v>4</v>
       </c>
@@ -9521,7 +9513,7 @@
       <c r="L54" s="50"/>
       <c r="M54" s="50"/>
     </row>
-    <row r="55" spans="1:20" ht="13" thickBot="1">
+    <row r="55" spans="1:20" ht="13.8" thickBot="1">
       <c r="A55" s="27"/>
       <c r="B55" s="47" t="str">
         <f>Calculations!B58</f>
@@ -9562,7 +9554,7 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" spans="1:20" ht="13" thickTop="1">
+    <row r="56" spans="1:20" ht="13.8" thickTop="1">
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9682,16 +9674,16 @@
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="8.36328125" style="59" customWidth="1"/>
-    <col min="3" max="4" width="10.54296875" style="33" customWidth="1"/>
-    <col min="5" max="5" width="1.54296875" style="33" customWidth="1"/>
-    <col min="6" max="7" width="10.54296875" style="33" customWidth="1"/>
-    <col min="8" max="8" width="1.54296875" style="33" customWidth="1"/>
-    <col min="9" max="10" width="10.54296875" style="33" customWidth="1"/>
-    <col min="11" max="16384" width="9.08984375" style="33"/>
+    <col min="1" max="1" width="3.33203125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="59" customWidth="1"/>
+    <col min="3" max="4" width="10.5546875" style="33" customWidth="1"/>
+    <col min="5" max="5" width="1.5546875" style="33" customWidth="1"/>
+    <col min="6" max="7" width="10.5546875" style="33" customWidth="1"/>
+    <col min="8" max="8" width="1.5546875" style="33" customWidth="1"/>
+    <col min="9" max="10" width="10.5546875" style="33" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1">
@@ -9722,7 +9714,7 @@
       <c r="H3" s="60"/>
       <c r="J3" s="195"/>
     </row>
-    <row r="4" spans="1:12" s="34" customFormat="1" ht="12" thickTop="1">
+    <row r="4" spans="1:12" s="34" customFormat="1" ht="12.6" thickTop="1">
       <c r="B4" s="61"/>
       <c r="C4" s="196" t="s">
         <v>2</v>
@@ -9739,7 +9731,7 @@
       </c>
       <c r="J4" s="196"/>
     </row>
-    <row r="5" spans="1:12" s="34" customFormat="1" ht="23">
+    <row r="5" spans="1:12" s="34" customFormat="1" ht="22.8">
       <c r="A5" s="63"/>
       <c r="B5" s="64"/>
       <c r="C5" s="65" t="s">
@@ -9763,7 +9755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="34" customFormat="1" ht="11.5">
+    <row r="6" spans="1:12" s="34" customFormat="1" ht="12">
       <c r="A6" s="67" t="s">
         <v>5</v>
       </c>
@@ -9777,7 +9769,7 @@
       <c r="I6" s="69"/>
       <c r="J6" s="69"/>
     </row>
-    <row r="7" spans="1:12" s="34" customFormat="1" ht="13.5">
+    <row r="7" spans="1:12" s="34" customFormat="1" ht="13.8">
       <c r="A7" s="67"/>
       <c r="B7" s="70" t="s">
         <v>7</v>
@@ -10020,7 +10012,7 @@
       </c>
       <c r="L15" s="72"/>
     </row>
-    <row r="16" spans="1:12" s="34" customFormat="1" ht="13.5">
+    <row r="16" spans="1:12" s="34" customFormat="1" ht="13.8">
       <c r="A16" s="67"/>
       <c r="B16" s="70" t="s">
         <v>28</v>
@@ -10047,7 +10039,7 @@
       </c>
       <c r="L16" s="33"/>
     </row>
-    <row r="17" spans="1:27" s="34" customFormat="1" ht="11.5">
+    <row r="17" spans="1:27" s="34" customFormat="1" ht="12">
       <c r="A17" s="67"/>
       <c r="B17" s="70">
         <v>2008</v>
@@ -10084,7 +10076,7 @@
       <c r="T17" s="77"/>
       <c r="U17" s="77"/>
     </row>
-    <row r="18" spans="1:27" s="34" customFormat="1" ht="11.5">
+    <row r="18" spans="1:27" s="34" customFormat="1" ht="12">
       <c r="A18" s="67"/>
       <c r="B18" s="70">
         <v>2009</v>
@@ -10158,7 +10150,7 @@
       <c r="T19" s="77"/>
       <c r="U19" s="77"/>
     </row>
-    <row r="20" spans="1:27" s="34" customFormat="1" ht="11.5">
+    <row r="20" spans="1:27" s="34" customFormat="1" ht="12">
       <c r="A20" s="67"/>
       <c r="B20" s="70">
         <v>2011</v>
@@ -10195,7 +10187,7 @@
       <c r="T20" s="77"/>
       <c r="U20" s="77"/>
     </row>
-    <row r="21" spans="1:27" s="34" customFormat="1" ht="11.5">
+    <row r="21" spans="1:27" s="34" customFormat="1" ht="12">
       <c r="A21" s="67"/>
       <c r="B21" s="70">
         <v>2012</v>
@@ -10318,7 +10310,7 @@
       </c>
       <c r="L24" s="33"/>
     </row>
-    <row r="25" spans="1:27" s="34" customFormat="1" ht="13.5">
+    <row r="25" spans="1:27" s="34" customFormat="1" ht="13.8">
       <c r="A25" s="67" t="s">
         <v>8</v>
       </c>
@@ -10333,7 +10325,7 @@
       <c r="J25" s="69"/>
       <c r="L25" s="33"/>
     </row>
-    <row r="26" spans="1:27" s="34" customFormat="1" ht="13.5">
+    <row r="26" spans="1:27" s="34" customFormat="1" ht="13.8">
       <c r="A26" s="67"/>
       <c r="B26" s="70" t="s">
         <v>7</v>
@@ -10576,7 +10568,7 @@
       </c>
       <c r="L34" s="33"/>
     </row>
-    <row r="35" spans="1:20" s="34" customFormat="1" ht="13.5">
+    <row r="35" spans="1:20" s="34" customFormat="1" ht="13.8">
       <c r="A35" s="67"/>
       <c r="B35" s="70" t="s">
         <v>28</v>
@@ -10765,7 +10757,7 @@
       </c>
       <c r="L41" s="33"/>
     </row>
-    <row r="42" spans="1:20" s="34" customFormat="1" ht="13">
+    <row r="42" spans="1:20" s="34" customFormat="1">
       <c r="A42" s="81" t="s">
         <v>4</v>
       </c>
@@ -10780,7 +10772,7 @@
       <c r="J42" s="83"/>
       <c r="L42" s="33"/>
     </row>
-    <row r="43" spans="1:20" s="34" customFormat="1" ht="13.5" thickBot="1">
+    <row r="43" spans="1:20" s="34" customFormat="1" ht="13.8" thickBot="1">
       <c r="A43" s="86"/>
       <c r="B43" s="87" t="s">
         <v>21</v>
@@ -10807,7 +10799,7 @@
       </c>
       <c r="L43" s="33"/>
     </row>
-    <row r="44" spans="1:20" ht="13" thickTop="1">
+    <row r="44" spans="1:20" ht="13.8" thickTop="1">
       <c r="M44" s="34"/>
       <c r="N44" s="34"/>
       <c r="O44" s="34"/>

--- a/Data Sources/Energy Bills/GasAverageBill.xlsx
+++ b/Data Sources/Energy Bills/GasAverageBill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\Energy Bills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136795FD-E560-4369-95F0-C71BDF4A3207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0E8EB9-6D14-4125-82EA-CAA1CB99D434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{C555B289-5F24-4911-822A-972CDD47AEDD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{C555B289-5F24-4911-822A-972CDD47AEDD}"/>
   </bookViews>
   <sheets>
     <sheet name="calc_new" sheetId="13" state="hidden" r:id="rId1"/>
@@ -6792,7 +6792,7 @@
   <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B14" sqref="B14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="13.2"/>

--- a/Data Sources/Energy Bills/GasAverageBill.xlsx
+++ b/Data Sources/Energy Bills/GasAverageBill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\Energy Bills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0E8EB9-6D14-4125-82EA-CAA1CB99D434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C2E9CC-972A-43E9-94FE-8141D7BB9816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{C555B289-5F24-4911-822A-972CDD47AEDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{C555B289-5F24-4911-822A-972CDD47AEDD}"/>
   </bookViews>
   <sheets>
     <sheet name="calc_new" sheetId="13" state="hidden" r:id="rId1"/>
@@ -39,14 +39,6 @@
     <definedName name="table_25_Q2">#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -995,7 +987,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1281,83 +1273,41 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1369,19 +1319,16 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1390,14 +1337,14 @@
     <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1411,9 +1358,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2979,8 +2923,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7D7285AD-405F-454A-9859-F58E6F5F24F2}" name="Average_annual_domestic_gas_bills_in_cash_terms_for_GB_countries_based_on_consumption_of_13600kWh_year" displayName="Average_annual_domestic_gas_bills_in_cash_terms_for_GB_countries_based_on_consumption_of_13600kWh_year" ref="A9:I14" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowCellStyle="Normal 2">
-  <autoFilter ref="A9:I14" xr:uid="{7D7285AD-405F-454A-9859-F58E6F5F24F2}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7D7285AD-405F-454A-9859-F58E6F5F24F2}" name="Average_annual_domestic_gas_bills_in_cash_terms_for_GB_countries_based_on_consumption_of_13600kWh_year" displayName="Average_annual_domestic_gas_bills_in_cash_terms_for_GB_countries_based_on_consumption_of_13600kWh_year" ref="A9:I15" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowCellStyle="Normal 2">
+  <autoFilter ref="A9:I15" xr:uid="{7D7285AD-405F-454A-9859-F58E6F5F24F2}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2993,30 +2937,14 @@
   </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{79461581-ED69-4580-AA00-32F9515D6519}" name="Year" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{645CF9D7-482D-4646-9D9B-F235AF073690}" name="Standard credit: England &amp; Wales (pounds)" dataDxfId="18">
-      <calculatedColumnFormula>calc_new!C7</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{2F6AB5EA-BF0F-4F9C-BFA9-1C6FB2C45BB3}" name="Standard credit: Scotland (pounds)" dataDxfId="17">
-      <calculatedColumnFormula>calc_new!D7</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{C5CE56B7-E309-4A78-92D2-1E6159190459}" name="Direct debit: England &amp; Wales (pounds)" dataDxfId="16">
-      <calculatedColumnFormula>calc_new!E7</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{25EE3A90-E429-4416-BCDB-BE5BC5BEBC73}" name="Direct debit: Scotland (pounds)" dataDxfId="15">
-      <calculatedColumnFormula>calc_new!F7</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{A3F2E7DC-B21B-4D13-8D0D-661A1F79B2BE}" name="Prepayment: England &amp; Wales (pounds)" dataDxfId="14">
-      <calculatedColumnFormula>calc_new!G7</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{7C1317B9-7F1F-497D-8BB5-B8FB638EB164}" name="Prepayment: Scotland (pounds)" dataDxfId="13">
-      <calculatedColumnFormula>calc_new!H7</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{EC52871C-4A56-45DE-8E78-BCFC466579DE}" name="All Payment Types: England &amp; Wales (pounds)" dataDxfId="12">
-      <calculatedColumnFormula>calc_new!I7</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{E2DE5E98-7F3F-4943-8230-8D777BC362E4}" name="All Payment Types: Scotland (pounds)" dataDxfId="11">
-      <calculatedColumnFormula>calc_new!J7</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="2" xr3:uid="{645CF9D7-482D-4646-9D9B-F235AF073690}" name="Standard credit: England &amp; Wales (pounds)" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{2F6AB5EA-BF0F-4F9C-BFA9-1C6FB2C45BB3}" name="Standard credit: Scotland (pounds)" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{C5CE56B7-E309-4A78-92D2-1E6159190459}" name="Direct debit: England &amp; Wales (pounds)" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{25EE3A90-E429-4416-BCDB-BE5BC5BEBC73}" name="Direct debit: Scotland (pounds)" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{A3F2E7DC-B21B-4D13-8D0D-661A1F79B2BE}" name="Prepayment: England &amp; Wales (pounds)" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{7C1317B9-7F1F-497D-8BB5-B8FB638EB164}" name="Prepayment: Scotland (pounds)" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{EC52871C-4A56-45DE-8E78-BCFC466579DE}" name="All Payment Types: England &amp; Wales (pounds)" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{E2DE5E98-7F3F-4943-8230-8D777BC362E4}" name="All Payment Types: Scotland (pounds)" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3423,24 +3351,24 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
       <c r="I1" s="121"/>
       <c r="J1" s="121"/>
     </row>
@@ -3454,28 +3382,28 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="13.8" thickTop="1">
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="13.5" thickTop="1">
       <c r="B4" s="17"/>
-      <c r="C4" s="190" t="s">
+      <c r="C4" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="190"/>
-      <c r="E4" s="191" t="s">
+      <c r="D4" s="164"/>
+      <c r="E4" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="191"/>
-      <c r="G4" s="190" t="s">
+      <c r="F4" s="165"/>
+      <c r="G4" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="190"/>
-      <c r="I4" s="190" t="s">
+      <c r="H4" s="164"/>
+      <c r="I4" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="190"/>
+      <c r="J4" s="164"/>
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="23.4">
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="24">
       <c r="B5" s="18"/>
       <c r="C5" s="4" t="s">
         <v>0</v>
@@ -3730,7 +3658,7 @@
       <c r="K12" s="91"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" ht="11.4">
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="12">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
         <v>54</v>
@@ -3770,7 +3698,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="13.8">
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="13.5">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -4048,7 +3976,7 @@
       <c r="K20" s="93"/>
       <c r="L20" s="94"/>
     </row>
-    <row r="21" spans="1:15" ht="13.8" thickBot="1">
+    <row r="21" spans="1:15" ht="13.5" thickBot="1">
       <c r="A21" s="1"/>
       <c r="B21" s="8" t="s">
         <v>54</v>
@@ -4087,7 +4015,7 @@
       </c>
       <c r="K21" s="56"/>
     </row>
-    <row r="22" spans="1:15" ht="13.8" thickTop="1">
+    <row r="22" spans="1:15" ht="13.5" thickTop="1">
       <c r="K22" s="57" t="s">
         <v>61</v>
       </c>
@@ -4115,31 +4043,31 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="9.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24" customHeight="1">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="149"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:16" ht="24" customHeight="1">
       <c r="A2" s="124" t="s">
@@ -4178,7 +4106,7 @@
       <c r="O3" s="117"/>
     </row>
     <row r="4" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="135" t="s">
         <v>92</v>
       </c>
       <c r="B4" s="118"/>
@@ -4234,8 +4162,8 @@
       <c r="N6" s="117"/>
       <c r="O6" s="117"/>
     </row>
-    <row r="7" spans="1:16" ht="40.950000000000003" customHeight="1">
-      <c r="A7" s="155" t="s">
+    <row r="7" spans="1:16" ht="40.9" customHeight="1">
+      <c r="A7" s="135" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="116"/>
@@ -4310,8 +4238,8 @@
       <c r="N10" s="116"/>
       <c r="O10" s="116"/>
     </row>
-    <row r="11" spans="1:16" ht="42.45" customHeight="1">
-      <c r="A11" s="155" t="s">
+    <row r="11" spans="1:16" ht="42.4" customHeight="1">
+      <c r="A11" s="135" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="116"/>
@@ -4330,7 +4258,7 @@
       <c r="O11" s="117"/>
     </row>
     <row r="12" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A12" s="163" t="s">
+      <c r="A12" s="141" t="s">
         <v>83</v>
       </c>
       <c r="B12" s="116"/>
@@ -4346,7 +4274,7 @@
       <c r="L12" s="117"/>
     </row>
     <row r="13" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A13" s="163" t="s">
+      <c r="A13" s="141" t="s">
         <v>84</v>
       </c>
       <c r="B13" s="116"/>
@@ -4362,7 +4290,7 @@
       <c r="L13" s="117"/>
     </row>
     <row r="14" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A14" s="163" t="s">
+      <c r="A14" s="141" t="s">
         <v>85</v>
       </c>
       <c r="B14" s="116"/>
@@ -4378,7 +4306,7 @@
       <c r="L14" s="117"/>
     </row>
     <row r="15" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A15" s="163" t="s">
+      <c r="A15" s="141" t="s">
         <v>86</v>
       </c>
       <c r="B15" s="116"/>
@@ -4394,7 +4322,7 @@
       <c r="L15" s="117"/>
     </row>
     <row r="16" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A16" s="164" t="s">
+      <c r="A16" s="142" t="s">
         <v>87</v>
       </c>
       <c r="B16" s="116"/>
@@ -4410,7 +4338,7 @@
       <c r="L16" s="117"/>
     </row>
     <row r="17" spans="1:15" ht="33" customHeight="1">
-      <c r="A17" s="156" t="s">
+      <c r="A17" s="135" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4425,12 +4353,12 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A20" s="157" t="s">
+      <c r="A20" s="136" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A21" s="158" t="s">
+      <c r="A21" s="133" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4444,8 +4372,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="16.05" customHeight="1"/>
-    <row r="25" spans="1:15" ht="16.05" customHeight="1">
+    <row r="24" spans="1:15" ht="16.149999999999999" customHeight="1"/>
+    <row r="25" spans="1:15" ht="16.149999999999999" customHeight="1">
       <c r="A25" s="117"/>
       <c r="B25" s="117"/>
       <c r="C25" s="117"/>
@@ -4462,7 +4390,7 @@
       <c r="N25" s="117"/>
       <c r="O25" s="117"/>
     </row>
-    <row r="26" spans="1:15" ht="16.05" customHeight="1">
+    <row r="26" spans="1:15" ht="16.149999999999999" customHeight="1">
       <c r="A26" s="117"/>
       <c r="B26" s="117"/>
       <c r="C26" s="117"/>
@@ -4479,65 +4407,65 @@
       <c r="N26" s="117"/>
       <c r="O26" s="117"/>
     </row>
-    <row r="27" spans="1:15" ht="16.05" customHeight="1"/>
-    <row r="28" spans="1:15" ht="16.05" customHeight="1"/>
-    <row r="29" spans="1:15" ht="16.05" customHeight="1"/>
-    <row r="30" spans="1:15" ht="16.05" customHeight="1"/>
-    <row r="31" spans="1:15" ht="16.05" customHeight="1"/>
-    <row r="32" spans="1:15" ht="16.05" customHeight="1"/>
-    <row r="33" ht="16.05" customHeight="1"/>
-    <row r="34" ht="16.05" customHeight="1"/>
-    <row r="35" ht="16.05" customHeight="1"/>
-    <row r="36" ht="16.05" customHeight="1"/>
-    <row r="37" ht="16.05" customHeight="1"/>
-    <row r="38" ht="16.05" customHeight="1"/>
-    <row r="39" ht="16.05" customHeight="1"/>
-    <row r="40" ht="16.05" customHeight="1"/>
-    <row r="41" ht="16.05" customHeight="1"/>
-    <row r="42" ht="16.05" customHeight="1"/>
-    <row r="43" ht="16.05" customHeight="1"/>
-    <row r="44" ht="16.05" customHeight="1"/>
-    <row r="45" ht="16.05" customHeight="1"/>
-    <row r="46" ht="16.05" customHeight="1"/>
-    <row r="47" ht="16.05" customHeight="1"/>
-    <row r="48" ht="16.05" customHeight="1"/>
-    <row r="49" ht="16.05" customHeight="1"/>
-    <row r="50" ht="16.05" customHeight="1"/>
-    <row r="51" ht="16.05" customHeight="1"/>
-    <row r="52" ht="16.05" customHeight="1"/>
-    <row r="53" ht="16.05" customHeight="1"/>
-    <row r="54" ht="16.05" customHeight="1"/>
-    <row r="55" ht="16.05" customHeight="1"/>
-    <row r="56" ht="16.05" customHeight="1"/>
-    <row r="57" ht="16.05" customHeight="1"/>
-    <row r="58" ht="16.05" customHeight="1"/>
-    <row r="59" ht="16.05" customHeight="1"/>
-    <row r="60" ht="16.05" customHeight="1"/>
-    <row r="61" ht="16.05" customHeight="1"/>
-    <row r="62" ht="16.05" customHeight="1"/>
-    <row r="63" ht="16.05" customHeight="1"/>
-    <row r="64" ht="16.05" customHeight="1"/>
-    <row r="65" ht="16.05" customHeight="1"/>
-    <row r="66" ht="16.05" customHeight="1"/>
-    <row r="67" ht="16.05" customHeight="1"/>
-    <row r="68" ht="16.05" customHeight="1"/>
-    <row r="69" ht="16.05" customHeight="1"/>
-    <row r="70" ht="16.05" customHeight="1"/>
-    <row r="71" ht="16.05" customHeight="1"/>
-    <row r="72" ht="16.05" customHeight="1"/>
-    <row r="73" ht="16.05" customHeight="1"/>
-    <row r="74" ht="16.05" customHeight="1"/>
-    <row r="75" ht="16.05" customHeight="1"/>
-    <row r="76" ht="16.05" customHeight="1"/>
-    <row r="77" ht="16.05" customHeight="1"/>
-    <row r="78" ht="16.05" customHeight="1"/>
-    <row r="79" ht="16.05" customHeight="1"/>
-    <row r="80" ht="16.05" customHeight="1"/>
-    <row r="81" ht="16.05" customHeight="1"/>
-    <row r="82" ht="16.05" customHeight="1"/>
-    <row r="83" ht="16.05" customHeight="1"/>
-    <row r="84" ht="16.05" customHeight="1"/>
-    <row r="85" ht="16.05" customHeight="1"/>
+    <row r="27" spans="1:15" ht="16.149999999999999" customHeight="1"/>
+    <row r="28" spans="1:15" ht="16.149999999999999" customHeight="1"/>
+    <row r="29" spans="1:15" ht="16.149999999999999" customHeight="1"/>
+    <row r="30" spans="1:15" ht="16.149999999999999" customHeight="1"/>
+    <row r="31" spans="1:15" ht="16.149999999999999" customHeight="1"/>
+    <row r="32" spans="1:15" ht="16.149999999999999" customHeight="1"/>
+    <row r="33" ht="16.149999999999999" customHeight="1"/>
+    <row r="34" ht="16.149999999999999" customHeight="1"/>
+    <row r="35" ht="16.149999999999999" customHeight="1"/>
+    <row r="36" ht="16.149999999999999" customHeight="1"/>
+    <row r="37" ht="16.149999999999999" customHeight="1"/>
+    <row r="38" ht="16.149999999999999" customHeight="1"/>
+    <row r="39" ht="16.149999999999999" customHeight="1"/>
+    <row r="40" ht="16.149999999999999" customHeight="1"/>
+    <row r="41" ht="16.149999999999999" customHeight="1"/>
+    <row r="42" ht="16.149999999999999" customHeight="1"/>
+    <row r="43" ht="16.149999999999999" customHeight="1"/>
+    <row r="44" ht="16.149999999999999" customHeight="1"/>
+    <row r="45" ht="16.149999999999999" customHeight="1"/>
+    <row r="46" ht="16.149999999999999" customHeight="1"/>
+    <row r="47" ht="16.149999999999999" customHeight="1"/>
+    <row r="48" ht="16.149999999999999" customHeight="1"/>
+    <row r="49" ht="16.149999999999999" customHeight="1"/>
+    <row r="50" ht="16.149999999999999" customHeight="1"/>
+    <row r="51" ht="16.149999999999999" customHeight="1"/>
+    <row r="52" ht="16.149999999999999" customHeight="1"/>
+    <row r="53" ht="16.149999999999999" customHeight="1"/>
+    <row r="54" ht="16.149999999999999" customHeight="1"/>
+    <row r="55" ht="16.149999999999999" customHeight="1"/>
+    <row r="56" ht="16.149999999999999" customHeight="1"/>
+    <row r="57" ht="16.149999999999999" customHeight="1"/>
+    <row r="58" ht="16.149999999999999" customHeight="1"/>
+    <row r="59" ht="16.149999999999999" customHeight="1"/>
+    <row r="60" ht="16.149999999999999" customHeight="1"/>
+    <row r="61" ht="16.149999999999999" customHeight="1"/>
+    <row r="62" ht="16.149999999999999" customHeight="1"/>
+    <row r="63" ht="16.149999999999999" customHeight="1"/>
+    <row r="64" ht="16.149999999999999" customHeight="1"/>
+    <row r="65" ht="16.149999999999999" customHeight="1"/>
+    <row r="66" ht="16.149999999999999" customHeight="1"/>
+    <row r="67" ht="16.149999999999999" customHeight="1"/>
+    <row r="68" ht="16.149999999999999" customHeight="1"/>
+    <row r="69" ht="16.149999999999999" customHeight="1"/>
+    <row r="70" ht="16.149999999999999" customHeight="1"/>
+    <row r="71" ht="16.149999999999999" customHeight="1"/>
+    <row r="72" ht="16.149999999999999" customHeight="1"/>
+    <row r="73" ht="16.149999999999999" customHeight="1"/>
+    <row r="74" ht="16.149999999999999" customHeight="1"/>
+    <row r="75" ht="16.149999999999999" customHeight="1"/>
+    <row r="76" ht="16.149999999999999" customHeight="1"/>
+    <row r="77" ht="16.149999999999999" customHeight="1"/>
+    <row r="78" ht="16.149999999999999" customHeight="1"/>
+    <row r="79" ht="16.149999999999999" customHeight="1"/>
+    <row r="80" ht="16.149999999999999" customHeight="1"/>
+    <row r="81" ht="16.149999999999999" customHeight="1"/>
+    <row r="82" ht="16.149999999999999" customHeight="1"/>
+    <row r="83" ht="16.149999999999999" customHeight="1"/>
+    <row r="84" ht="16.149999999999999" customHeight="1"/>
+    <row r="85" ht="16.149999999999999" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A13" r:id="rId1" xr:uid="{3FC7E51E-C696-4949-9D9F-A6FF707E2A07}"/>
@@ -4563,98 +4491,95 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="16384" width="8.77734375" style="133"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6">
-      <c r="A1" s="159" t="s">
+    <row r="1" spans="1:11" ht="15.75">
+      <c r="A1" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
     </row>
     <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" ht="15">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
     </row>
     <row r="4" spans="1:11" ht="15">
-      <c r="A4" s="162" t="s">
+      <c r="A4" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
     </row>
     <row r="5" spans="1:11" ht="15">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="153"/>
-      <c r="C5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="153"/>
-      <c r="K5" s="153"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
     </row>
     <row r="6" spans="1:11" ht="15">
-      <c r="A6" s="162" t="s">
+      <c r="A6" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4678,34 +4603,34 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" style="10" customWidth="1"/>
-    <col min="4" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="1.5546875" customWidth="1"/>
-    <col min="7" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="1.5546875" customWidth="1"/>
-    <col min="10" max="11" width="10.5546875" customWidth="1"/>
-    <col min="12" max="12" width="1.5546875" customWidth="1"/>
-    <col min="13" max="14" width="10.5546875" customWidth="1"/>
+    <col min="4" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="1.5703125" customWidth="1"/>
+    <col min="7" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="1.5703125" customWidth="1"/>
+    <col min="10" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="1.5703125" customWidth="1"/>
+    <col min="13" max="14" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="19.5" customHeight="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
       <c r="L1" s="121"/>
       <c r="M1" s="121"/>
       <c r="N1" s="121"/>
@@ -4722,30 +4647,30 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" ht="12.6" thickTop="1">
+    <row r="4" spans="1:27" s="2" customFormat="1" thickTop="1">
       <c r="B4" s="17"/>
       <c r="C4" s="11"/>
-      <c r="D4" s="190" t="s">
+      <c r="D4" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="190"/>
+      <c r="E4" s="164"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="191" t="s">
+      <c r="G4" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="191"/>
+      <c r="H4" s="165"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="190" t="s">
+      <c r="J4" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="190"/>
+      <c r="K4" s="164"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="190" t="s">
+      <c r="M4" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="190"/>
-    </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" ht="22.8">
+      <c r="N4" s="164"/>
+    </row>
+    <row r="5" spans="1:27" s="2" customFormat="1" ht="24">
       <c r="B5" s="18"/>
       <c r="C5" s="7"/>
       <c r="D5" s="4" t="s">
@@ -4794,7 +4719,7 @@
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" ht="13.8">
+    <row r="7" spans="1:27" s="2" customFormat="1" ht="13.5">
       <c r="A7" s="6"/>
       <c r="B7" s="19" t="s">
         <v>7</v>
@@ -5154,7 +5079,7 @@
       <c r="Z16"/>
       <c r="AA16"/>
     </row>
-    <row r="17" spans="1:27" s="2" customFormat="1" ht="13.8">
+    <row r="17" spans="1:27" s="2" customFormat="1" ht="13.5">
       <c r="A17" s="6"/>
       <c r="B17" s="42" t="s">
         <v>18</v>
@@ -5682,7 +5607,7 @@
       <c r="O31" s="32"/>
       <c r="P31" s="32"/>
     </row>
-    <row r="32" spans="1:27" s="2" customFormat="1" ht="11.4">
+    <row r="32" spans="1:27" s="2" customFormat="1" ht="12">
       <c r="A32" s="8"/>
       <c r="B32" s="8" t="s">
         <v>47</v>
@@ -5726,7 +5651,7 @@
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
     </row>
-    <row r="33" spans="1:16" s="2" customFormat="1" ht="13.8">
+    <row r="33" spans="1:16" s="2" customFormat="1" ht="13.5">
       <c r="A33" s="6" t="s">
         <v>8</v>
       </c>
@@ -5750,7 +5675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="2" customFormat="1" ht="13.8">
+    <row r="34" spans="1:16" s="2" customFormat="1" ht="13.5">
       <c r="A34" s="6"/>
       <c r="B34" s="19" t="s">
         <v>7</v>
@@ -6107,7 +6032,7 @@
       </c>
       <c r="P42" s="22"/>
     </row>
-    <row r="43" spans="1:16" s="2" customFormat="1" ht="13.8">
+    <row r="43" spans="1:16" s="2" customFormat="1" ht="13.5">
       <c r="A43" s="6"/>
       <c r="B43" s="42" t="s">
         <v>18</v>
@@ -6720,7 +6645,7 @@
       <c r="O57" s="55"/>
       <c r="P57"/>
     </row>
-    <row r="58" spans="1:19" ht="13.8" thickBot="1">
+    <row r="58" spans="1:19" ht="13.5" thickBot="1">
       <c r="A58" s="1"/>
       <c r="B58" s="8" t="s">
         <v>47</v>
@@ -6763,7 +6688,7 @@
       </c>
       <c r="O58" s="56"/>
     </row>
-    <row r="59" spans="1:19" ht="13.8" thickTop="1">
+    <row r="59" spans="1:19" ht="13.5" thickTop="1">
       <c r="O59" s="57" t="s">
         <v>51</v>
       </c>
@@ -6792,172 +6717,162 @@
   <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:I14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="16" customWidth="1"/>
-    <col min="2" max="9" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="16" customWidth="1"/>
+    <col min="2" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="183" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="146" t="s">
+    <row r="1" spans="1:23" s="158" customFormat="1" ht="18" customHeight="1">
+      <c r="A1" s="130" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-    </row>
-    <row r="2" spans="1:23" s="183" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+    </row>
+    <row r="2" spans="1:23" s="158" customFormat="1" ht="18" customHeight="1">
+      <c r="A2" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-    </row>
-    <row r="3" spans="1:23" s="183" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="130" t="s">
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+    </row>
+    <row r="3" spans="1:23" s="158" customFormat="1" ht="18" customHeight="1">
+      <c r="A3" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-    </row>
-    <row r="4" spans="1:23" s="183" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="130" t="s">
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+    </row>
+    <row r="4" spans="1:23" s="158" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="182"/>
-      <c r="C4" s="182"/>
-      <c r="D4" s="182"/>
-      <c r="E4" s="182"/>
-      <c r="F4" s="182"/>
-      <c r="G4" s="182"/>
-    </row>
-    <row r="5" spans="1:23" s="185" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="177" t="s">
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+    </row>
+    <row r="5" spans="1:23" s="160" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="152" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="184"/>
-    </row>
-    <row r="6" spans="1:23" s="183" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="130" t="s">
+      <c r="B5" s="159"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="159"/>
+    </row>
+    <row r="6" spans="1:23" s="158" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-    </row>
-    <row r="7" spans="1:23" s="183" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="131" t="s">
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+    </row>
+    <row r="7" spans="1:23" s="158" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="182"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-    </row>
-    <row r="8" spans="1:23" s="183" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="145" t="s">
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="157"/>
+    </row>
+    <row r="8" spans="1:23" s="158" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="182"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-    </row>
-    <row r="9" spans="1:23" s="54" customFormat="1" ht="64.05" customHeight="1">
-      <c r="A9" s="150" t="s">
+      <c r="B8" s="157"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="157"/>
+    </row>
+    <row r="9" spans="1:23" s="54" customFormat="1" ht="64.150000000000006" customHeight="1">
+      <c r="A9" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="186" t="s">
+      <c r="B9" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="186" t="s">
+      <c r="C9" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="186" t="s">
+      <c r="D9" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="186" t="s">
+      <c r="E9" s="156" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="186" t="s">
+      <c r="F9" s="156" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="186" t="s">
+      <c r="G9" s="156" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="186" t="s">
+      <c r="H9" s="156" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="186" t="s">
+      <c r="I9" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="151"/>
-      <c r="K9" s="151"/>
     </row>
     <row r="10" spans="1:23" s="2" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A10" s="180">
+      <c r="A10" s="155">
         <v>2017</v>
       </c>
-      <c r="B10" s="128">
-        <f>calc_new!C7</f>
-        <v>638.4621330158609</v>
-      </c>
-      <c r="C10" s="128">
-        <f>calc_new!D7</f>
-        <v>633.11993528441167</v>
-      </c>
-      <c r="D10" s="128">
-        <f>calc_new!E7</f>
-        <v>561.18703032520466</v>
-      </c>
-      <c r="E10" s="128">
-        <f>calc_new!F7</f>
-        <v>557.86906510641893</v>
-      </c>
-      <c r="F10" s="128">
-        <f>calc_new!G7</f>
-        <v>582.65995686936992</v>
-      </c>
-      <c r="G10" s="128">
-        <f>calc_new!H7</f>
-        <v>576.69559255598028</v>
-      </c>
-      <c r="H10" s="128">
-        <f>calc_new!I7</f>
-        <v>581.38399508335658</v>
-      </c>
-      <c r="I10" s="128">
-        <f>calc_new!J7</f>
-        <v>577.08555822075903</v>
-      </c>
-      <c r="J10" s="129"/>
-      <c r="K10" s="129"/>
+      <c r="B10" s="14">
+        <v>638</v>
+      </c>
+      <c r="C10" s="14">
+        <v>633</v>
+      </c>
+      <c r="D10" s="14">
+        <v>561</v>
+      </c>
+      <c r="E10" s="14">
+        <v>558</v>
+      </c>
+      <c r="F10" s="14">
+        <v>583</v>
+      </c>
+      <c r="G10" s="14">
+        <v>577</v>
+      </c>
+      <c r="H10" s="14">
+        <v>581</v>
+      </c>
+      <c r="I10" s="14">
+        <v>577</v>
+      </c>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
       <c r="L10" s="97"/>
       <c r="M10" s="97"/>
       <c r="N10" s="97"/>
@@ -6972,43 +6887,35 @@
       <c r="W10" s="29"/>
     </row>
     <row r="11" spans="1:23" s="2" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A11" s="180">
+      <c r="A11" s="155">
         <v>2018</v>
       </c>
-      <c r="B11" s="128">
-        <f>calc_new!C8</f>
-        <v>659.19100545396213</v>
-      </c>
-      <c r="C11" s="128">
-        <f>calc_new!D8</f>
-        <v>653.27991114129122</v>
-      </c>
-      <c r="D11" s="128">
-        <f>calc_new!E8</f>
-        <v>580.22906206417588</v>
-      </c>
-      <c r="E11" s="128">
-        <f>calc_new!F8</f>
-        <v>577.80503655915902</v>
-      </c>
-      <c r="F11" s="128">
-        <f>calc_new!G8</f>
-        <v>575.2292914065273</v>
-      </c>
-      <c r="G11" s="128">
-        <f>calc_new!H8</f>
-        <v>568.75882232555489</v>
-      </c>
-      <c r="H11" s="128">
-        <f>calc_new!I8</f>
-        <v>594.01282530663696</v>
-      </c>
-      <c r="I11" s="128">
-        <f>calc_new!J8</f>
-        <v>590.10637366728338</v>
-      </c>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
+      <c r="B11" s="14">
+        <v>659</v>
+      </c>
+      <c r="C11" s="14">
+        <v>653</v>
+      </c>
+      <c r="D11" s="14">
+        <v>580</v>
+      </c>
+      <c r="E11" s="14">
+        <v>578</v>
+      </c>
+      <c r="F11" s="14">
+        <v>572</v>
+      </c>
+      <c r="G11" s="14">
+        <v>566</v>
+      </c>
+      <c r="H11" s="14">
+        <v>593</v>
+      </c>
+      <c r="I11" s="14">
+        <v>590</v>
+      </c>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
       <c r="L11" s="97"/>
       <c r="M11" s="97"/>
       <c r="N11" s="97"/>
@@ -7023,43 +6930,35 @@
       <c r="W11" s="29"/>
     </row>
     <row r="12" spans="1:23" s="2" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A12" s="180">
+      <c r="A12" s="155">
         <v>2019</v>
       </c>
-      <c r="B12" s="128">
-        <f>calc_new!C9</f>
-        <v>659.50852242120789</v>
-      </c>
-      <c r="C12" s="128">
-        <f>calc_new!D9</f>
-        <v>648.12935922576332</v>
-      </c>
-      <c r="D12" s="128">
-        <f>calc_new!E9</f>
-        <v>591.65471020689711</v>
-      </c>
-      <c r="E12" s="128">
-        <f>calc_new!F9</f>
-        <v>587.32243157100845</v>
-      </c>
-      <c r="F12" s="128">
-        <f>calc_new!G9</f>
-        <v>630.55875600512957</v>
-      </c>
-      <c r="G12" s="128">
-        <f>calc_new!H9</f>
-        <v>621.02647950505627</v>
-      </c>
-      <c r="H12" s="128">
-        <f>calc_new!I9</f>
-        <v>609.62977143063745</v>
-      </c>
-      <c r="I12" s="128">
-        <f>calc_new!J9</f>
-        <v>604.34292605711698</v>
-      </c>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
+      <c r="B12" s="14">
+        <v>660</v>
+      </c>
+      <c r="C12" s="14">
+        <v>650</v>
+      </c>
+      <c r="D12" s="14">
+        <v>592</v>
+      </c>
+      <c r="E12" s="14">
+        <v>588</v>
+      </c>
+      <c r="F12" s="14">
+        <v>635</v>
+      </c>
+      <c r="G12" s="14">
+        <v>626</v>
+      </c>
+      <c r="H12" s="14">
+        <v>610</v>
+      </c>
+      <c r="I12" s="14">
+        <v>606</v>
+      </c>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
       <c r="L12" s="97"/>
       <c r="M12" s="97"/>
       <c r="N12" s="97"/>
@@ -7074,43 +6973,35 @@
       <c r="W12" s="29"/>
     </row>
     <row r="13" spans="1:23" s="2" customFormat="1">
-      <c r="A13" s="180">
+      <c r="A13" s="155">
         <v>2020</v>
       </c>
-      <c r="B13" s="128">
-        <f>calc_new!C10</f>
-        <v>606.51982752911897</v>
-      </c>
-      <c r="C13" s="128">
-        <f>calc_new!D10</f>
-        <v>603.33917146569024</v>
-      </c>
-      <c r="D13" s="128">
-        <f>calc_new!E10</f>
-        <v>539.08913567117793</v>
-      </c>
-      <c r="E13" s="128">
-        <f>calc_new!F10</f>
-        <v>544.04638077330912</v>
-      </c>
-      <c r="F13" s="128">
-        <f>calc_new!G10</f>
-        <v>584.78657776612351</v>
-      </c>
-      <c r="G13" s="128">
-        <f>calc_new!H10</f>
-        <v>584.79860284514064</v>
-      </c>
-      <c r="H13" s="128">
-        <f>calc_new!I10</f>
-        <v>556.57993000283284</v>
-      </c>
-      <c r="I13" s="128">
-        <f>calc_new!J10</f>
-        <v>559.95246897297227</v>
-      </c>
-      <c r="J13" s="129"/>
-      <c r="K13" s="129"/>
+      <c r="B13" s="14">
+        <v>640</v>
+      </c>
+      <c r="C13" s="14">
+        <v>631</v>
+      </c>
+      <c r="D13" s="14">
+        <v>558</v>
+      </c>
+      <c r="E13" s="14">
+        <v>557</v>
+      </c>
+      <c r="F13" s="14">
+        <v>621</v>
+      </c>
+      <c r="G13" s="14">
+        <v>615</v>
+      </c>
+      <c r="H13" s="14">
+        <v>582</v>
+      </c>
+      <c r="I13" s="14">
+        <v>580</v>
+      </c>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
       <c r="L13" s="97"/>
       <c r="M13" s="97"/>
       <c r="N13" s="97"/>
@@ -7125,40 +7016,69 @@
       <c r="W13" s="29"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="180">
+      <c r="A14" s="155">
         <v>2021</v>
       </c>
-      <c r="B14" s="128">
-        <v>603</v>
-      </c>
-      <c r="C14" s="128">
-        <v>597</v>
-      </c>
-      <c r="D14" s="128">
+      <c r="B14" s="14">
+        <v>604</v>
+      </c>
+      <c r="C14" s="14">
+        <v>599</v>
+      </c>
+      <c r="D14" s="14">
         <v>547</v>
       </c>
-      <c r="E14" s="128">
-        <v>547</v>
-      </c>
-      <c r="F14" s="128">
-        <v>553</v>
-      </c>
-      <c r="G14" s="128">
-        <v>550</v>
-      </c>
-      <c r="H14" s="128">
-        <v>557</v>
-      </c>
-      <c r="I14" s="128">
-        <v>556</v>
-      </c>
-      <c r="J14" s="127"/>
-      <c r="K14" s="127"/>
+      <c r="E14" s="14">
+        <v>548</v>
+      </c>
+      <c r="F14" s="14">
+        <v>577</v>
+      </c>
+      <c r="G14" s="14">
+        <v>575</v>
+      </c>
+      <c r="H14" s="14">
+        <v>561</v>
+      </c>
+      <c r="I14" s="14">
+        <v>560</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="99"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="155">
+        <v>2022</v>
+      </c>
+      <c r="B15" s="14">
+        <v>1241</v>
+      </c>
+      <c r="C15" s="14">
+        <v>1249</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1053</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1067</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1140</v>
+      </c>
+      <c r="G15" s="14">
+        <v>1158</v>
+      </c>
+      <c r="H15" s="14">
+        <v>1096</v>
+      </c>
+      <c r="I15" s="14">
+        <v>1115</v>
+      </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="29"/>
@@ -7194,342 +7114,339 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.21875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="19.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="142" customWidth="1"/>
-    <col min="2" max="9" width="14.6640625" style="133" customWidth="1"/>
-    <col min="10" max="16384" width="19.21875" style="133"/>
+    <col min="1" max="1" width="14.7109375" style="16" customWidth="1"/>
+    <col min="2" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" customHeight="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:16" ht="18" customHeight="1">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-    </row>
-    <row r="6" spans="1:16" s="179" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="177" t="s">
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+    </row>
+    <row r="6" spans="1:16" s="154" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="152" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
     </row>
     <row r="7" spans="1:16" ht="18" customHeight="1">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="132"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
     </row>
     <row r="8" spans="1:16" ht="18" customHeight="1">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
     </row>
     <row r="9" spans="1:16" ht="18" customHeight="1">
-      <c r="A9" s="144" t="s">
+      <c r="A9" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-    </row>
-    <row r="10" spans="1:16" s="149" customFormat="1" ht="64.05" customHeight="1">
-      <c r="A10" s="147" t="s">
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+    </row>
+    <row r="10" spans="1:16" s="54" customFormat="1" ht="64.150000000000006" customHeight="1">
+      <c r="A10" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="181" t="s">
+      <c r="B10" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="181" t="s">
+      <c r="C10" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="181" t="s">
+      <c r="D10" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="181" t="s">
+      <c r="E10" s="156" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="181" t="s">
+      <c r="F10" s="156" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="181" t="s">
+      <c r="G10" s="156" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="181" t="s">
+      <c r="H10" s="156" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="181" t="s">
+      <c r="I10" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="148"/>
-      <c r="K10" s="148"/>
-    </row>
-    <row r="11" spans="1:16" s="137" customFormat="1" ht="11.4">
-      <c r="A11" s="138">
+    </row>
+    <row r="11" spans="1:16" s="2" customFormat="1" ht="12">
+      <c r="A11" s="129">
         <v>2017</v>
       </c>
-      <c r="B11" s="139">
+      <c r="B11" s="14">
         <f>calc_new!C15</f>
         <v>568.03863031067749</v>
       </c>
-      <c r="C11" s="139">
+      <c r="C11" s="14">
         <f>calc_new!D15</f>
         <v>563.28568643930487</v>
       </c>
-      <c r="D11" s="139">
+      <c r="D11" s="14">
         <f>calc_new!E15</f>
         <v>499.28710814573361</v>
       </c>
-      <c r="E11" s="139">
+      <c r="E11" s="14">
         <f>calc_new!F15</f>
         <v>496.33512036002935</v>
       </c>
-      <c r="F11" s="139">
+      <c r="F11" s="14">
         <f>calc_new!G15</f>
         <v>518.3915329066715</v>
       </c>
-      <c r="G11" s="139">
+      <c r="G11" s="14">
         <f>calc_new!H15</f>
         <v>513.0850485279534</v>
       </c>
-      <c r="H11" s="139">
+      <c r="H11" s="14">
         <f>calc_new!I15</f>
         <v>517.25631196281984</v>
       </c>
-      <c r="I11" s="139">
+      <c r="I11" s="14">
         <f>calc_new!J15</f>
         <v>513.43200029006141</v>
       </c>
-      <c r="J11" s="139"/>
-      <c r="K11" s="139"/>
-      <c r="L11" s="140"/>
-      <c r="M11" s="140"/>
-      <c r="N11" s="140"/>
-      <c r="O11" s="140"/>
-    </row>
-    <row r="12" spans="1:16" s="137" customFormat="1" ht="11.4">
-      <c r="A12" s="138">
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+    </row>
+    <row r="12" spans="1:16" s="2" customFormat="1" ht="12">
+      <c r="A12" s="129">
         <v>2018</v>
       </c>
-      <c r="B12" s="139">
+      <c r="B12" s="14">
         <f>calc_new!C16</f>
         <v>575.11052006442617</v>
       </c>
-      <c r="C12" s="139">
+      <c r="C12" s="14">
         <f>calc_new!D16</f>
         <v>569.95339186306535</v>
       </c>
-      <c r="D12" s="139">
+      <c r="D12" s="14">
         <f>calc_new!E16</f>
         <v>506.2202531274188</v>
       </c>
-      <c r="E12" s="139">
+      <c r="E12" s="14">
         <f>calc_new!F16</f>
         <v>504.10541454906223</v>
       </c>
-      <c r="F12" s="139">
+      <c r="F12" s="14">
         <f>calc_new!G16</f>
         <v>501.85820831896007</v>
       </c>
-      <c r="G12" s="139">
+      <c r="G12" s="14">
         <f>calc_new!H16</f>
         <v>496.21305417178519</v>
       </c>
-      <c r="H12" s="139">
+      <c r="H12" s="14">
         <f>calc_new!I16</f>
         <v>518.24588330323945</v>
       </c>
-      <c r="I12" s="139">
+      <c r="I12" s="14">
         <f>calc_new!J16</f>
         <v>514.83770355666059</v>
       </c>
-      <c r="J12" s="139"/>
-      <c r="K12" s="139"/>
-      <c r="L12" s="140"/>
-      <c r="M12" s="140"/>
-      <c r="N12" s="140"/>
-      <c r="O12" s="140"/>
-    </row>
-    <row r="13" spans="1:16" s="137" customFormat="1" ht="11.4">
-      <c r="A13" s="138">
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+    </row>
+    <row r="13" spans="1:16" s="2" customFormat="1" ht="12">
+      <c r="A13" s="129">
         <v>2019</v>
       </c>
-      <c r="B13" s="139">
+      <c r="B13" s="14">
         <f>calc_new!C17</f>
         <v>563.87978667013283</v>
       </c>
-      <c r="C13" s="139">
+      <c r="C13" s="14">
         <f>calc_new!D17</f>
         <v>554.15060213802758</v>
       </c>
-      <c r="D13" s="139">
+      <c r="D13" s="14">
         <f>calc_new!E17</f>
         <v>505.86477722689705</v>
       </c>
-      <c r="E13" s="139">
+      <c r="E13" s="14">
         <f>calc_new!F17</f>
         <v>502.16067899321229</v>
       </c>
-      <c r="F13" s="139">
+      <c r="F13" s="14">
         <f>calc_new!G17</f>
         <v>539.1277363843858</v>
       </c>
-      <c r="G13" s="139">
+      <c r="G13" s="14">
         <f>calc_new!H17</f>
         <v>530.97763997682307</v>
       </c>
-      <c r="H13" s="139">
+      <c r="H13" s="14">
         <f>calc_new!I17</f>
         <v>521.2334545731951</v>
       </c>
-      <c r="I13" s="139">
+      <c r="I13" s="14">
         <f>calc_new!J17</f>
         <v>516.71320177883501</v>
       </c>
-      <c r="J13" s="139"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="140"/>
-      <c r="M13" s="140"/>
-      <c r="N13" s="140"/>
-      <c r="O13" s="140"/>
-    </row>
-    <row r="14" spans="1:16" s="137" customFormat="1" ht="11.4">
-      <c r="A14" s="138">
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+    </row>
+    <row r="14" spans="1:16" s="2" customFormat="1" ht="12">
+      <c r="A14" s="129">
         <v>2020</v>
       </c>
-      <c r="B14" s="139">
+      <c r="B14" s="14">
         <f>calc_new!C18</f>
         <v>489.68314687195152</v>
       </c>
-      <c r="C14" s="139">
+      <c r="C14" s="14">
         <f>calc_new!D18</f>
         <v>487.11519509269607</v>
       </c>
-      <c r="D14" s="139">
+      <c r="D14" s="14">
         <f>calc_new!E18</f>
         <v>435.24193673168747</v>
       </c>
-      <c r="E14" s="139">
+      <c r="E14" s="14">
         <f>calc_new!F18</f>
         <v>439.2442451002637</v>
       </c>
-      <c r="F14" s="139">
+      <c r="F14" s="14">
         <f>calc_new!G18</f>
         <v>472.13647213412236</v>
       </c>
-      <c r="G14" s="139">
+      <c r="G14" s="14">
         <f>calc_new!H18</f>
         <v>472.14618076732313</v>
       </c>
-      <c r="H14" s="139">
+      <c r="H14" s="14">
         <f>calc_new!I18</f>
         <v>449.36339957735794</v>
       </c>
-      <c r="I14" s="139">
+      <c r="I14" s="14">
         <f>calc_new!J18</f>
         <v>452.08627098384443</v>
       </c>
-      <c r="J14" s="139"/>
-      <c r="K14" s="139"/>
-      <c r="L14" s="140"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="140"/>
-      <c r="O14" s="140"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="165"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="137"/>
-      <c r="M15" s="141"/>
-      <c r="N15" s="137"/>
-      <c r="O15" s="137"/>
-      <c r="P15" s="137"/>
+      <c r="A15" s="143"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="143"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7552,10 +7469,10 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="152.109375" style="104" customWidth="1"/>
-    <col min="2" max="16384" width="8.77734375" style="104"/>
+    <col min="1" max="1" width="152.140625" style="104" customWidth="1"/>
+    <col min="2" max="16384" width="8.7109375" style="104"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
@@ -7579,26 +7496,26 @@
       <c r="P1" s="103"/>
       <c r="Q1" s="103"/>
     </row>
-    <row r="2" spans="1:17" s="171" customFormat="1" ht="27.45" customHeight="1">
-      <c r="A2" s="169" t="s">
+    <row r="2" spans="1:17" ht="27.4" customHeight="1">
+      <c r="A2" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="170"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
     </row>
     <row r="3" spans="1:17" ht="43.35" customHeight="1">
       <c r="A3" s="106" t="s">
@@ -7642,7 +7559,7 @@
       <c r="P4" s="107"/>
       <c r="Q4" s="107"/>
     </row>
-    <row r="5" spans="1:17" ht="28.95" customHeight="1">
+    <row r="5" spans="1:17" ht="28.9" customHeight="1">
       <c r="A5" s="105" t="s">
         <v>15</v>
       </c>
@@ -7726,43 +7643,43 @@
       <c r="P8" s="106"/>
       <c r="Q8" s="106"/>
     </row>
-    <row r="9" spans="1:17" ht="27.45" customHeight="1">
-      <c r="A9" s="169" t="s">
+    <row r="9" spans="1:17" ht="27.4" customHeight="1">
+      <c r="A9" s="105" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="29.1" customHeight="1">
-      <c r="A10" s="166" t="s">
+      <c r="A10" s="144" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="167" t="s">
+      <c r="A11" s="145" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="167" t="s">
+      <c r="A12" s="145" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="44.1" customHeight="1">
-      <c r="A13" s="166" t="s">
+      <c r="A13" s="144" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="168" t="s">
+      <c r="A14" s="146" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="146" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="168" t="s">
+      <c r="A16" s="146" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7781,18 +7698,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="173" customFormat="1" ht="15.6">
-      <c r="A20" s="172" t="s">
+    <row r="20" spans="1:5" s="148" customFormat="1" ht="15.75">
+      <c r="A20" s="147" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="41.4">
+    <row r="21" spans="1:5" ht="42.75">
       <c r="A21" s="112" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
-      <c r="A22" s="174" t="s">
+      <c r="A22" s="149" t="s">
         <v>102</v>
       </c>
       <c r="B22" s="113"/>
@@ -7805,8 +7722,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="176" customFormat="1" ht="15.6">
-      <c r="A24" s="175" t="s">
+    <row r="24" spans="1:5" s="151" customFormat="1" ht="15.75">
+      <c r="A24" s="150" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7833,18 +7750,18 @@
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="16" customWidth="1"/>
-    <col min="3" max="4" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="1.5546875" customWidth="1"/>
-    <col min="6" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="1.5546875" customWidth="1"/>
-    <col min="9" max="10" width="10.5546875" customWidth="1"/>
-    <col min="11" max="11" width="1.5546875" customWidth="1"/>
-    <col min="12" max="13" width="10.5546875" customWidth="1"/>
-    <col min="14" max="19" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="16" customWidth="1"/>
+    <col min="3" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="1.5703125" customWidth="1"/>
+    <col min="6" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="1.5703125" customWidth="1"/>
+    <col min="9" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="1.5703125" customWidth="1"/>
+    <col min="12" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="19" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1">
@@ -7883,29 +7800,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="12.6" thickTop="1">
+    <row r="4" spans="1:13" s="2" customFormat="1" thickTop="1">
       <c r="B4" s="17"/>
-      <c r="C4" s="190" t="s">
+      <c r="C4" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="190"/>
+      <c r="D4" s="164"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="191" t="s">
+      <c r="F4" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="191"/>
+      <c r="G4" s="165"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="190" t="s">
+      <c r="I4" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="190"/>
+      <c r="J4" s="164"/>
       <c r="K4" s="122"/>
-      <c r="L4" s="190" t="s">
+      <c r="L4" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="190"/>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="22.8">
+      <c r="M4" s="164"/>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="24">
       <c r="A5" s="8"/>
       <c r="B5" s="20"/>
       <c r="C5" s="4" t="s">
@@ -7953,7 +7870,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="13.8">
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="13.5">
       <c r="A7" s="6"/>
       <c r="B7" s="44" t="s">
         <v>24</v>
@@ -8214,7 +8131,7 @@
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="13.8">
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="13.5">
       <c r="A16" s="6"/>
       <c r="B16" s="44" t="s">
         <v>26</v>
@@ -8799,7 +8716,7 @@
       <c r="R30" s="29"/>
       <c r="S30" s="29"/>
     </row>
-    <row r="31" spans="1:27" s="2" customFormat="1" ht="13.8">
+    <row r="31" spans="1:27" s="2" customFormat="1" ht="13.5">
       <c r="A31" s="6" t="s">
         <v>25</v>
       </c>
@@ -8816,7 +8733,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:27" s="2" customFormat="1" ht="13.8">
+    <row r="32" spans="1:27" s="2" customFormat="1" ht="13.5">
       <c r="A32" s="6"/>
       <c r="B32" s="44" t="s">
         <v>24</v>
@@ -9077,7 +8994,7 @@
       <c r="L40" s="38"/>
       <c r="M40" s="38"/>
     </row>
-    <row r="41" spans="1:13" s="2" customFormat="1" ht="13.8">
+    <row r="41" spans="1:13" s="2" customFormat="1" ht="13.5">
       <c r="A41" s="6"/>
       <c r="B41" s="44" t="s">
         <v>26</v>
@@ -9513,7 +9430,7 @@
       <c r="L54" s="50"/>
       <c r="M54" s="50"/>
     </row>
-    <row r="55" spans="1:20" ht="13.8" thickBot="1">
+    <row r="55" spans="1:20" ht="13.5" thickBot="1">
       <c r="A55" s="27"/>
       <c r="B55" s="47" t="str">
         <f>Calculations!B58</f>
@@ -9554,7 +9471,7 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" spans="1:20" ht="13.8" thickTop="1">
+    <row r="56" spans="1:20" ht="13.5" thickTop="1">
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9674,35 +9591,35 @@
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="59" customWidth="1"/>
-    <col min="3" max="4" width="10.5546875" style="33" customWidth="1"/>
-    <col min="5" max="5" width="1.5546875" style="33" customWidth="1"/>
-    <col min="6" max="7" width="10.5546875" style="33" customWidth="1"/>
-    <col min="8" max="8" width="1.5546875" style="33" customWidth="1"/>
-    <col min="9" max="10" width="10.5546875" style="33" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="33"/>
+    <col min="1" max="1" width="3.28515625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="59" customWidth="1"/>
+    <col min="3" max="4" width="10.5703125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="1.5703125" style="33" customWidth="1"/>
+    <col min="6" max="7" width="10.5703125" style="33" customWidth="1"/>
+    <col min="8" max="8" width="1.5703125" style="33" customWidth="1"/>
+    <col min="9" max="10" width="10.5703125" style="33" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
     </row>
     <row r="2" spans="1:12" ht="9.75" customHeight="1">
       <c r="A2" s="58"/>
-      <c r="J2" s="194" t="s">
+      <c r="J2" s="168" t="s">
         <v>11</v>
       </c>
     </row>
@@ -9712,26 +9629,26 @@
       <c r="F3" s="60"/>
       <c r="G3" s="60"/>
       <c r="H3" s="60"/>
-      <c r="J3" s="195"/>
-    </row>
-    <row r="4" spans="1:12" s="34" customFormat="1" ht="12.6" thickTop="1">
+      <c r="J3" s="169"/>
+    </row>
+    <row r="4" spans="1:12" s="34" customFormat="1" thickTop="1">
       <c r="B4" s="61"/>
-      <c r="C4" s="196" t="s">
+      <c r="C4" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="196"/>
+      <c r="D4" s="170"/>
       <c r="E4" s="62"/>
-      <c r="F4" s="197" t="s">
+      <c r="F4" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="197"/>
+      <c r="G4" s="171"/>
       <c r="H4" s="62"/>
-      <c r="I4" s="196" t="s">
+      <c r="I4" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="196"/>
-    </row>
-    <row r="5" spans="1:12" s="34" customFormat="1" ht="22.8">
+      <c r="J4" s="170"/>
+    </row>
+    <row r="5" spans="1:12" s="34" customFormat="1" ht="24">
       <c r="A5" s="63"/>
       <c r="B5" s="64"/>
       <c r="C5" s="65" t="s">
@@ -9769,7 +9686,7 @@
       <c r="I6" s="69"/>
       <c r="J6" s="69"/>
     </row>
-    <row r="7" spans="1:12" s="34" customFormat="1" ht="13.8">
+    <row r="7" spans="1:12" s="34" customFormat="1" ht="13.5">
       <c r="A7" s="67"/>
       <c r="B7" s="70" t="s">
         <v>7</v>
@@ -10012,7 +9929,7 @@
       </c>
       <c r="L15" s="72"/>
     </row>
-    <row r="16" spans="1:12" s="34" customFormat="1" ht="13.8">
+    <row r="16" spans="1:12" s="34" customFormat="1" ht="13.5">
       <c r="A16" s="67"/>
       <c r="B16" s="70" t="s">
         <v>28</v>
@@ -10310,7 +10227,7 @@
       </c>
       <c r="L24" s="33"/>
     </row>
-    <row r="25" spans="1:27" s="34" customFormat="1" ht="13.8">
+    <row r="25" spans="1:27" s="34" customFormat="1" ht="13.5">
       <c r="A25" s="67" t="s">
         <v>8</v>
       </c>
@@ -10325,7 +10242,7 @@
       <c r="J25" s="69"/>
       <c r="L25" s="33"/>
     </row>
-    <row r="26" spans="1:27" s="34" customFormat="1" ht="13.8">
+    <row r="26" spans="1:27" s="34" customFormat="1" ht="13.5">
       <c r="A26" s="67"/>
       <c r="B26" s="70" t="s">
         <v>7</v>
@@ -10568,7 +10485,7 @@
       </c>
       <c r="L34" s="33"/>
     </row>
-    <row r="35" spans="1:20" s="34" customFormat="1" ht="13.8">
+    <row r="35" spans="1:20" s="34" customFormat="1" ht="13.5">
       <c r="A35" s="67"/>
       <c r="B35" s="70" t="s">
         <v>28</v>
@@ -10772,7 +10689,7 @@
       <c r="J42" s="83"/>
       <c r="L42" s="33"/>
     </row>
-    <row r="43" spans="1:20" s="34" customFormat="1" ht="13.8" thickBot="1">
+    <row r="43" spans="1:20" s="34" customFormat="1" ht="13.5" thickBot="1">
       <c r="A43" s="86"/>
       <c r="B43" s="87" t="s">
         <v>21</v>
@@ -10799,7 +10716,7 @@
       </c>
       <c r="L43" s="33"/>
     </row>
-    <row r="44" spans="1:20" ht="13.8" thickTop="1">
+    <row r="44" spans="1:20" ht="13.5" thickTop="1">
       <c r="M44" s="34"/>
       <c r="N44" s="34"/>
       <c r="O44" s="34"/>

--- a/Data Sources/Energy Bills/GasAverageBill.xlsx
+++ b/Data Sources/Energy Bills/GasAverageBill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\Energy Bills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C2E9CC-972A-43E9-94FE-8141D7BB9816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963F2508-17DA-43B1-8282-9B533FC40343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{C555B289-5F24-4911-822A-972CDD47AEDD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{C555B289-5F24-4911-822A-972CDD47AEDD}"/>
   </bookViews>
   <sheets>
     <sheet name="calc_new" sheetId="13" state="hidden" r:id="rId1"/>
@@ -6717,7 +6717,7 @@
   <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="12.75"/>
@@ -7056,28 +7056,28 @@
         <v>2022</v>
       </c>
       <c r="B15" s="14">
-        <v>1241</v>
+        <v>1267</v>
       </c>
       <c r="C15" s="14">
-        <v>1249</v>
+        <v>1256</v>
       </c>
       <c r="D15" s="14">
-        <v>1053</v>
+        <v>1088</v>
       </c>
       <c r="E15" s="14">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="F15" s="14">
-        <v>1140</v>
+        <v>1220</v>
       </c>
       <c r="G15" s="14">
-        <v>1158</v>
+        <v>1195</v>
       </c>
       <c r="H15" s="14">
-        <v>1096</v>
+        <v>1135</v>
       </c>
       <c r="I15" s="14">
-        <v>1115</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="18" spans="2:9">
